--- a/UnitTest/Test Plan.xlsx
+++ b/UnitTest/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itss\ISD.ICT.20201.08\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISD\ISD.ICT.20201.08\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3755EA3B-4CDA-450A-AA53-95C940A3478A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3B027-B714-4011-BB32-672FED5E9DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7572" yWindow="420" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Details" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +338,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -346,20 +346,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,7 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,7 +379,7 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,21 +399,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -658,9 +658,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -668,7 +737,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -689,100 +758,31 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1069,28 +1069,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A305" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G314" sqref="G314"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A295" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="2"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="2"/>
-    <col min="8" max="8" width="8.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="2"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.75" style="2"/>
+    <col min="8" max="8" width="8.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1100,49 +1101,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1152,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1163,23 +1164,23 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1191,22 +1192,22 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -1223,31 +1224,31 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1259,59 +1260,59 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>1</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45">
         <v>3456789</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1323,107 +1324,107 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="41" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>1</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="24" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1433,7 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1444,23 +1445,23 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1472,22 +1473,22 @@
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="24" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -1504,7 +1505,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -1513,31 +1514,31 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1549,59 +1550,59 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>1</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="21" t="s">
         <v>57</v>
       </c>
@@ -1613,107 +1614,107 @@
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="49" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="52" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="41" t="s">
+      <c r="G40" s="42"/>
+      <c r="H40" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="34"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>1</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="70"/>
+      <c r="D42" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30" t="s">
+      <c r="G42" s="45"/>
+      <c r="H42" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33" t="s">
+      <c r="E47" s="55"/>
+      <c r="F47" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="55"/>
+      <c r="F48" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="24" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1723,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1734,23 +1735,23 @@
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1762,22 +1763,22 @@
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39" t="s">
+      <c r="E52" s="61"/>
+      <c r="F52" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="40"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="24" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -1794,31 +1795,31 @@
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>1</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1830,59 +1831,59 @@
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54" t="s">
+      <c r="C57" s="48"/>
+      <c r="D57" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="45"/>
+      <c r="D58" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46" t="s">
+    <row r="60" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="21" t="s">
         <v>59</v>
       </c>
@@ -1894,66 +1895,66 @@
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="49" t="s">
+      <c r="C62" s="34"/>
+      <c r="D62" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="52" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="41" t="s">
+      <c r="G62" s="42"/>
+      <c r="H62" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-    </row>
-    <row r="64" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="34"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>1</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="30" t="s">
+      <c r="C64" s="70"/>
+      <c r="D64" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30" t="s">
+      <c r="E64" s="45"/>
+      <c r="F64" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30" t="s">
+      <c r="G64" s="45"/>
+      <c r="H64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+    </row>
+    <row r="65" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="23"/>
       <c r="C65" s="19"/>
@@ -1965,7 +1966,7 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
@@ -1975,48 +1976,48 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
+    <row r="68" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33" t="s">
+      <c r="E68" s="55"/>
+      <c r="F68" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="32"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="43" t="s">
+      <c r="E69" s="55"/>
+      <c r="F69" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="43"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2026,7 @@
       </c>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2037,23 +2038,23 @@
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35" t="s">
+      <c r="B71" s="57"/>
+      <c r="C71" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -2065,22 +2066,22 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="39" t="s">
+      <c r="E73" s="61"/>
+      <c r="F73" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="40"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="24" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -2097,31 +2098,31 @@
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>1</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2133,59 +2134,59 @@
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54" t="s">
+      <c r="C78" s="48"/>
+      <c r="D78" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>1</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
+      <c r="C79" s="45"/>
+      <c r="D79" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="46" t="s">
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="46"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="21" t="s">
         <v>64</v>
       </c>
@@ -2197,66 +2198,66 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="49" t="s">
+      <c r="C83" s="34"/>
+      <c r="D83" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="52" t="s">
+      <c r="E83" s="40"/>
+      <c r="F83" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="41" t="s">
+      <c r="G83" s="42"/>
+      <c r="H83" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="34"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>1</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="42"/>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="70"/>
+      <c r="D85" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30" t="s">
+      <c r="E85" s="45"/>
+      <c r="F85" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30" t="s">
+      <c r="G85" s="45"/>
+      <c r="H85" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="23"/>
       <c r="C86" s="19"/>
@@ -2268,48 +2269,48 @@
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
     </row>
-    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+    <row r="89" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33" t="s">
+      <c r="E89" s="55"/>
+      <c r="F89" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+    </row>
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="43" t="s">
+      <c r="E90" s="55"/>
+      <c r="F90" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="24" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2319,7 @@
       </c>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2330,23 +2331,23 @@
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="34" t="s">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="35" t="s">
+      <c r="B92" s="57"/>
+      <c r="C92" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -2358,22 +2359,22 @@
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37" t="s">
+    <row r="94" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="38"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="37" t="s">
+      <c r="D94" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39" t="s">
+      <c r="E94" s="61"/>
+      <c r="F94" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G94" s="40"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="24" t="s">
         <v>13</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
@@ -2390,31 +2391,31 @@
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>1</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2426,59 +2427,59 @@
       <c r="I98" s="23"/>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>1</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30" t="s">
+      <c r="C100" s="45"/>
+      <c r="D100" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="46" t="s">
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="46"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="21" t="s">
         <v>65</v>
       </c>
@@ -2490,107 +2491,107 @@
       <c r="I102" s="23"/>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="41" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="49" t="s">
+      <c r="C104" s="34"/>
+      <c r="D104" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="50"/>
-      <c r="F104" s="52" t="s">
+      <c r="E104" s="40"/>
+      <c r="F104" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="41" t="s">
+      <c r="G104" s="42"/>
+      <c r="H104" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="47"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-    </row>
-    <row r="106" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="34"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+    </row>
+    <row r="106" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>1</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="42"/>
-      <c r="D106" s="30" t="s">
+      <c r="C106" s="70"/>
+      <c r="D106" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30" t="s">
+      <c r="E106" s="45"/>
+      <c r="F106" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30" t="s">
+      <c r="G106" s="45"/>
+      <c r="H106" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="32"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33" t="s">
+      <c r="E110" s="55"/>
+      <c r="F110" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+    </row>
+    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="32"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="32"/>
-      <c r="F111" s="43" t="s">
+      <c r="E111" s="55"/>
+      <c r="F111" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G111" s="43"/>
+      <c r="G111" s="56"/>
       <c r="H111" s="24" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2600,7 @@
       </c>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2611,23 +2612,23 @@
       <c r="I112" s="23"/>
       <c r="J112" s="23"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="34" t="s">
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="35" t="s">
+      <c r="B113" s="57"/>
+      <c r="C113" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
       <c r="J113" s="23"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -2639,22 +2640,22 @@
       <c r="I114" s="23"/>
       <c r="J114" s="23"/>
     </row>
-    <row r="115" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="37" t="s">
+    <row r="115" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="38"/>
+      <c r="B115" s="61"/>
       <c r="C115" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39" t="s">
+      <c r="E115" s="61"/>
+      <c r="F115" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G115" s="40"/>
+      <c r="G115" s="63"/>
       <c r="H115" s="24" t="s">
         <v>13</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
@@ -2671,31 +2672,31 @@
       <c r="I116" s="23"/>
       <c r="J116" s="23"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>1</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2707,59 +2708,59 @@
       <c r="I119" s="23"/>
       <c r="J119" s="23"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54" t="s">
+      <c r="C120" s="48"/>
+      <c r="D120" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
       <c r="J120" s="23"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>1</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30" t="s">
+      <c r="C121" s="45"/>
+      <c r="D121" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
       <c r="J121" s="23"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="46" t="s">
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="46"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="21" t="s">
         <v>65</v>
       </c>
@@ -2771,107 +2772,107 @@
       <c r="I123" s="23"/>
       <c r="J123" s="23"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C124" s="16"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="47"/>
-      <c r="D125" s="49" t="s">
+      <c r="C125" s="34"/>
+      <c r="D125" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="52" t="s">
+      <c r="E125" s="40"/>
+      <c r="F125" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="52"/>
-      <c r="H125" s="41" t="s">
+      <c r="G125" s="42"/>
+      <c r="H125" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="47"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-    </row>
-    <row r="127" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="34"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
+    </row>
+    <row r="127" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>1</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="42"/>
-      <c r="D127" s="30" t="s">
+      <c r="C127" s="70"/>
+      <c r="D127" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30" t="s">
+      <c r="E127" s="45"/>
+      <c r="F127" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30" t="s">
+      <c r="G127" s="45"/>
+      <c r="H127" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="30"/>
-      <c r="J127" s="30"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="31" t="s">
+    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="32"/>
+      <c r="B131" s="55"/>
       <c r="C131" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="32"/>
-      <c r="F131" s="33" t="s">
+      <c r="E131" s="55"/>
+      <c r="F131" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="31" t="s">
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="32"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="32"/>
-      <c r="F132" s="43" t="s">
+      <c r="E132" s="55"/>
+      <c r="F132" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G132" s="43"/>
+      <c r="G132" s="56"/>
       <c r="H132" s="24" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2892,23 +2893,23 @@
       <c r="I133" s="23"/>
       <c r="J133" s="23"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="34" t="s">
+    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="35" t="s">
+      <c r="B134" s="57"/>
+      <c r="C134" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
       <c r="G134" s="23"/>
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
       <c r="J134" s="23"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -2920,22 +2921,22 @@
       <c r="I135" s="23"/>
       <c r="J135" s="23"/>
     </row>
-    <row r="136" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="37" t="s">
+    <row r="136" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="38"/>
+      <c r="B136" s="61"/>
       <c r="C136" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="37" t="s">
+      <c r="D136" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="38"/>
-      <c r="F136" s="39" t="s">
+      <c r="E136" s="61"/>
+      <c r="F136" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="40"/>
+      <c r="G136" s="63"/>
       <c r="H136" s="24" t="s">
         <v>13</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="12"/>
@@ -2952,31 +2953,31 @@
       <c r="I137" s="23"/>
       <c r="J137" s="23"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="53" t="s">
+      <c r="B138" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="53"/>
-      <c r="D138" s="53"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="53"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C138" s="71"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>1</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="23"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2988,59 +2989,59 @@
       <c r="I140" s="23"/>
       <c r="J140" s="23"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54" t="s">
+      <c r="C141" s="48"/>
+      <c r="D141" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>1</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30" t="s">
+      <c r="C142" s="45"/>
+      <c r="D142" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="23"/>
       <c r="H142" s="23"/>
       <c r="I142" s="23"/>
       <c r="J142" s="23"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="16"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="45"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="46" t="s">
+    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="46"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="21" t="s">
         <v>69</v>
       </c>
@@ -3052,66 +3053,66 @@
       <c r="I144" s="23"/>
       <c r="J144" s="23"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C145" s="16"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="41" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B146" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="47"/>
-      <c r="D146" s="49" t="s">
+      <c r="C146" s="34"/>
+      <c r="D146" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="50"/>
-      <c r="F146" s="52" t="s">
+      <c r="E146" s="40"/>
+      <c r="F146" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G146" s="52"/>
-      <c r="H146" s="41" t="s">
+      <c r="G146" s="42"/>
+      <c r="H146" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="47"/>
-      <c r="B147" s="48"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-    </row>
-    <row r="148" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="34"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="42"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+    </row>
+    <row r="148" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>1</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="42"/>
-      <c r="D148" s="30" t="s">
+      <c r="C148" s="70"/>
+      <c r="D148" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30" t="s">
+      <c r="E148" s="45"/>
+      <c r="F148" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30" t="s">
+      <c r="G148" s="45"/>
+      <c r="H148" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-    </row>
-    <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+    </row>
+    <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>70</v>
       </c>
@@ -3121,48 +3122,48 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="31" t="s">
+    <row r="155" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="32"/>
+      <c r="B155" s="55"/>
       <c r="C155" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E155" s="32"/>
-      <c r="F155" s="33" t="s">
+      <c r="E155" s="55"/>
+      <c r="F155" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="33"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="31" t="s">
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="67"/>
+    </row>
+    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="32"/>
+      <c r="B156" s="55"/>
       <c r="C156" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="32"/>
-      <c r="F156" s="43" t="s">
+      <c r="E156" s="55"/>
+      <c r="F156" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G156" s="43"/>
+      <c r="G156" s="56"/>
       <c r="H156" s="24" t="s">
         <v>8</v>
       </c>
@@ -3171,7 +3172,7 @@
       </c>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="23"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
@@ -3183,23 +3184,23 @@
       <c r="I157" s="23"/>
       <c r="J157" s="23"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="34" t="s">
+    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="34"/>
-      <c r="C158" s="35" t="s">
+      <c r="B158" s="57"/>
+      <c r="C158" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
       <c r="J158" s="23"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -3211,22 +3212,22 @@
       <c r="I159" s="23"/>
       <c r="J159" s="23"/>
     </row>
-    <row r="160" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="37" t="s">
+    <row r="160" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="38"/>
+      <c r="B160" s="61"/>
       <c r="C160" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="38"/>
-      <c r="F160" s="39" t="s">
+      <c r="E160" s="61"/>
+      <c r="F160" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G160" s="40"/>
+      <c r="G160" s="63"/>
       <c r="H160" s="24" t="s">
         <v>13</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
@@ -3243,31 +3244,31 @@
       <c r="I161" s="23"/>
       <c r="J161" s="23"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="53"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="53"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C162" s="71"/>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="71"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>1</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C163" s="45"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="45"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="23"/>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -3279,59 +3280,59 @@
       <c r="I164" s="23"/>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B165" s="54" t="s">
+      <c r="B165" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C165" s="54"/>
-      <c r="D165" s="54" t="s">
+      <c r="C165" s="48"/>
+      <c r="D165" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
       <c r="G165" s="23"/>
       <c r="H165" s="23"/>
       <c r="I165" s="23"/>
       <c r="J165" s="23"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
         <v>1</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C166" s="30"/>
-      <c r="D166" s="44">
+      <c r="C166" s="45"/>
+      <c r="D166" s="69">
         <v>39419</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="23"/>
       <c r="H166" s="23"/>
       <c r="I166" s="23"/>
       <c r="J166" s="23"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="16"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="45"/>
-      <c r="D167" s="45"/>
-      <c r="E167" s="45"/>
-      <c r="F167" s="45"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="46" t="s">
+    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="46"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="21" t="s">
         <v>75</v>
       </c>
@@ -3343,66 +3344,66 @@
       <c r="I168" s="23"/>
       <c r="J168" s="23"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C169" s="16"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="41" t="s">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="47"/>
-      <c r="D170" s="49" t="s">
+      <c r="C170" s="34"/>
+      <c r="D170" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="50"/>
-      <c r="F170" s="52" t="s">
+      <c r="E170" s="40"/>
+      <c r="F170" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G170" s="52"/>
-      <c r="H170" s="41" t="s">
+      <c r="G170" s="42"/>
+      <c r="H170" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I170" s="41"/>
-      <c r="J170" s="41"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="47"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="52"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41"/>
-      <c r="J171" s="41"/>
-    </row>
-    <row r="172" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="34"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="41"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
+    </row>
+    <row r="172" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14">
         <v>1</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="42"/>
-      <c r="D172" s="30" t="s">
+      <c r="C172" s="70"/>
+      <c r="D172" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30" t="s">
+      <c r="E172" s="45"/>
+      <c r="F172" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30" t="s">
+      <c r="G172" s="45"/>
+      <c r="H172" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I172" s="30"/>
-      <c r="J172" s="30"/>
-    </row>
-    <row r="173" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I172" s="45"/>
+      <c r="J172" s="45"/>
+    </row>
+    <row r="173" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18"/>
       <c r="B173" s="23"/>
       <c r="C173" s="19"/>
@@ -3414,7 +3415,7 @@
       <c r="I173" s="23"/>
       <c r="J173" s="23"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="18"/>
       <c r="B174" s="23"/>
       <c r="C174" s="19"/>
@@ -3426,48 +3427,48 @@
       <c r="I174" s="23"/>
       <c r="J174" s="23"/>
     </row>
-    <row r="176" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="31" t="s">
+    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="32"/>
+      <c r="B177" s="55"/>
       <c r="C177" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E177" s="32"/>
-      <c r="F177" s="33" t="s">
+      <c r="E177" s="55"/>
+      <c r="F177" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="33"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="31" t="s">
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
+    </row>
+    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="32"/>
+      <c r="B178" s="55"/>
       <c r="C178" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="32"/>
-      <c r="F178" s="43" t="s">
+      <c r="E178" s="55"/>
+      <c r="F178" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G178" s="43"/>
+      <c r="G178" s="56"/>
       <c r="H178" s="24" t="s">
         <v>8</v>
       </c>
@@ -3476,7 +3477,7 @@
       </c>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="23"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -3488,23 +3489,23 @@
       <c r="I179" s="23"/>
       <c r="J179" s="23"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="34" t="s">
+    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="34"/>
-      <c r="C180" s="35" t="s">
+      <c r="B180" s="57"/>
+      <c r="C180" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
       <c r="G180" s="23"/>
       <c r="H180" s="23"/>
       <c r="I180" s="23"/>
       <c r="J180" s="23"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -3516,22 +3517,22 @@
       <c r="I181" s="23"/>
       <c r="J181" s="23"/>
     </row>
-    <row r="182" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="37" t="s">
+    <row r="182" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B182" s="38"/>
+      <c r="B182" s="61"/>
       <c r="C182" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E182" s="38"/>
-      <c r="F182" s="39" t="s">
+      <c r="E182" s="61"/>
+      <c r="F182" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="40"/>
+      <c r="G182" s="63"/>
       <c r="H182" s="24" t="s">
         <v>13</v>
       </c>
@@ -3539,31 +3540,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="71"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
         <v>1</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="30"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="23"/>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -3575,59 +3576,59 @@
       <c r="I185" s="23"/>
       <c r="J185" s="23"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B186" s="54" t="s">
+      <c r="B186" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C186" s="54"/>
-      <c r="D186" s="54" t="s">
+      <c r="C186" s="48"/>
+      <c r="D186" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="54"/>
-      <c r="F186" s="54"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
       <c r="G186" s="23"/>
       <c r="H186" s="23"/>
       <c r="I186" s="23"/>
       <c r="J186" s="23"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="14">
         <v>1</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C187" s="30"/>
-      <c r="D187" s="44">
+      <c r="C187" s="45"/>
+      <c r="D187" s="69">
         <v>44195</v>
       </c>
-      <c r="E187" s="30"/>
-      <c r="F187" s="30"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="23"/>
       <c r="H187" s="23"/>
       <c r="I187" s="23"/>
       <c r="J187" s="23"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="16"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="45"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="45"/>
-      <c r="F188" s="45"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="46" t="s">
+    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B189" s="46"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="21" t="s">
         <v>77</v>
       </c>
@@ -3639,66 +3640,66 @@
       <c r="I189" s="23"/>
       <c r="J189" s="23"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="41" t="s">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B191" s="41" t="s">
+      <c r="B191" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C191" s="47"/>
-      <c r="D191" s="49" t="s">
+      <c r="C191" s="34"/>
+      <c r="D191" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E191" s="50"/>
-      <c r="F191" s="52" t="s">
+      <c r="E191" s="40"/>
+      <c r="F191" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G191" s="52"/>
-      <c r="H191" s="41" t="s">
+      <c r="G191" s="42"/>
+      <c r="H191" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I191" s="41"/>
-      <c r="J191" s="41"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="47"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="52"/>
-      <c r="G192" s="52"/>
-      <c r="H192" s="41"/>
-      <c r="I192" s="41"/>
-      <c r="J192" s="41"/>
-    </row>
-    <row r="193" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I191" s="33"/>
+      <c r="J191" s="33"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="34"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="42"/>
+      <c r="G192" s="42"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
+      <c r="J192" s="33"/>
+    </row>
+    <row r="193" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>1</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C193" s="42"/>
-      <c r="D193" s="30" t="s">
+      <c r="C193" s="70"/>
+      <c r="D193" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30" t="s">
+      <c r="E193" s="45"/>
+      <c r="F193" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30" t="s">
+      <c r="G193" s="45"/>
+      <c r="H193" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I193" s="30"/>
-      <c r="J193" s="30"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I193" s="45"/>
+      <c r="J193" s="45"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
       <c r="B194" s="23"/>
       <c r="C194" s="19"/>
@@ -3710,48 +3711,48 @@
       <c r="I194" s="23"/>
       <c r="J194" s="23"/>
     </row>
-    <row r="196" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="31" t="s">
+    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="32"/>
+      <c r="B197" s="55"/>
       <c r="C197" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D197" s="31" t="s">
+      <c r="D197" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E197" s="32"/>
-      <c r="F197" s="33" t="s">
+      <c r="E197" s="55"/>
+      <c r="F197" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="33"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="31" t="s">
+      <c r="G197" s="67"/>
+      <c r="H197" s="67"/>
+      <c r="I197" s="67"/>
+      <c r="J197" s="67"/>
+    </row>
+    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="32"/>
+      <c r="B198" s="55"/>
       <c r="C198" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="31" t="s">
+      <c r="D198" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E198" s="32"/>
-      <c r="F198" s="43" t="s">
+      <c r="E198" s="55"/>
+      <c r="F198" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G198" s="43"/>
+      <c r="G198" s="56"/>
       <c r="H198" s="24" t="s">
         <v>8</v>
       </c>
@@ -3760,7 +3761,7 @@
       </c>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="23"/>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -3772,23 +3773,23 @@
       <c r="I199" s="23"/>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="34" t="s">
+    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B200" s="34"/>
-      <c r="C200" s="35" t="s">
+      <c r="B200" s="57"/>
+      <c r="C200" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D200" s="36"/>
-      <c r="E200" s="36"/>
-      <c r="F200" s="36"/>
+      <c r="D200" s="59"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
       <c r="G200" s="23"/>
       <c r="H200" s="23"/>
       <c r="I200" s="23"/>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -3800,22 +3801,22 @@
       <c r="I201" s="23"/>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="37" t="s">
+    <row r="202" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B202" s="38"/>
+      <c r="B202" s="61"/>
       <c r="C202" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D202" s="37" t="s">
+      <c r="D202" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E202" s="38"/>
-      <c r="F202" s="39" t="s">
+      <c r="E202" s="61"/>
+      <c r="F202" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G202" s="40"/>
+      <c r="G202" s="63"/>
       <c r="H202" s="24" t="s">
         <v>13</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="12"/>
@@ -3832,31 +3833,31 @@
       <c r="I203" s="23"/>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B204" s="53" t="s">
+      <c r="B204" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="53"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C204" s="71"/>
+      <c r="D204" s="71"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="71"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>1</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C205" s="30"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
-      <c r="F205" s="30"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C205" s="45"/>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="23"/>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -3868,59 +3869,59 @@
       <c r="I206" s="23"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B207" s="54" t="s">
+      <c r="B207" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54" t="s">
+      <c r="C207" s="48"/>
+      <c r="D207" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
       <c r="G207" s="23"/>
       <c r="H207" s="23"/>
       <c r="I207" s="23"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="14">
         <v>1</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C208" s="30"/>
-      <c r="D208" s="44" t="s">
+      <c r="C208" s="45"/>
+      <c r="D208" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="30"/>
-      <c r="F208" s="30"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="23"/>
       <c r="H208" s="23"/>
       <c r="I208" s="23"/>
       <c r="J208" s="23"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="16"/>
-      <c r="B209" s="45"/>
-      <c r="C209" s="45"/>
-      <c r="D209" s="45"/>
-      <c r="E209" s="45"/>
-      <c r="F209" s="45"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
       <c r="J209" s="21"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="46" t="s">
+    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B210" s="46"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="21" t="s">
         <v>78</v>
       </c>
@@ -3932,107 +3933,107 @@
       <c r="I210" s="23"/>
       <c r="J210" s="23"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="41" t="s">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B212" s="41" t="s">
+      <c r="B212" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C212" s="47"/>
-      <c r="D212" s="49" t="s">
+      <c r="C212" s="34"/>
+      <c r="D212" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E212" s="50"/>
-      <c r="F212" s="52" t="s">
+      <c r="E212" s="40"/>
+      <c r="F212" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G212" s="52"/>
-      <c r="H212" s="41" t="s">
+      <c r="G212" s="42"/>
+      <c r="H212" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I212" s="41"/>
-      <c r="J212" s="41"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="47"/>
-      <c r="B213" s="48"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="51"/>
-      <c r="F213" s="52"/>
-      <c r="G213" s="52"/>
-      <c r="H213" s="41"/>
-      <c r="I213" s="41"/>
-      <c r="J213" s="41"/>
-    </row>
-    <row r="214" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="33"/>
+      <c r="J212" s="33"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="34"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="72"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="42"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
+      <c r="J213" s="33"/>
+    </row>
+    <row r="214" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>1</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C214" s="42"/>
-      <c r="D214" s="30" t="s">
+      <c r="C214" s="70"/>
+      <c r="D214" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30" t="s">
+      <c r="E214" s="45"/>
+      <c r="F214" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30" t="s">
+      <c r="G214" s="45"/>
+      <c r="H214" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I214" s="30"/>
-      <c r="J214" s="30"/>
-    </row>
-    <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I214" s="45"/>
+      <c r="J214" s="45"/>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="31" t="s">
+    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B216" s="32"/>
+      <c r="B216" s="55"/>
       <c r="C216" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="31" t="s">
+      <c r="D216" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E216" s="32"/>
-      <c r="F216" s="33" t="s">
+      <c r="E216" s="55"/>
+      <c r="F216" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="33"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" s="31" t="s">
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+    </row>
+    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="32"/>
+      <c r="B217" s="55"/>
       <c r="C217" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="31" t="s">
+      <c r="D217" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="32"/>
-      <c r="F217" s="43" t="s">
+      <c r="E217" s="55"/>
+      <c r="F217" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G217" s="43"/>
+      <c r="G217" s="56"/>
       <c r="H217" s="24" t="s">
         <v>8</v>
       </c>
@@ -4041,7 +4042,7 @@
       </c>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="23"/>
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
@@ -4053,23 +4054,23 @@
       <c r="I218" s="23"/>
       <c r="J218" s="23"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="34" t="s">
+    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B219" s="34"/>
-      <c r="C219" s="35" t="s">
+      <c r="B219" s="57"/>
+      <c r="C219" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D219" s="36"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
       <c r="G219" s="23"/>
       <c r="H219" s="23"/>
       <c r="I219" s="23"/>
       <c r="J219" s="23"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -4081,22 +4082,22 @@
       <c r="I220" s="23"/>
       <c r="J220" s="23"/>
     </row>
-    <row r="221" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="37" t="s">
+    <row r="221" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B221" s="38"/>
+      <c r="B221" s="61"/>
       <c r="C221" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="37" t="s">
+      <c r="D221" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E221" s="38"/>
-      <c r="F221" s="39" t="s">
+      <c r="E221" s="61"/>
+      <c r="F221" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G221" s="40"/>
+      <c r="G221" s="63"/>
       <c r="H221" s="24" t="s">
         <v>13</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="12"/>
@@ -4113,31 +4114,31 @@
       <c r="I222" s="23"/>
       <c r="J222" s="23"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B223" s="53" t="s">
+      <c r="B223" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="53"/>
-      <c r="D223" s="53"/>
-      <c r="E223" s="53"/>
-      <c r="F223" s="53"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C223" s="71"/>
+      <c r="D223" s="71"/>
+      <c r="E223" s="71"/>
+      <c r="F223" s="71"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>1</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C224" s="30"/>
-      <c r="D224" s="30"/>
-      <c r="E224" s="30"/>
-      <c r="F224" s="30"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="23"/>
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
@@ -4149,59 +4150,59 @@
       <c r="I225" s="23"/>
       <c r="J225" s="23"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B226" s="54" t="s">
+      <c r="B226" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C226" s="54"/>
-      <c r="D226" s="54" t="s">
+      <c r="C226" s="48"/>
+      <c r="D226" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E226" s="54"/>
-      <c r="F226" s="54"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
       <c r="G226" s="23"/>
       <c r="H226" s="23"/>
       <c r="I226" s="23"/>
       <c r="J226" s="23"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="14">
         <v>1</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C227" s="30"/>
-      <c r="D227" s="44" t="s">
+      <c r="C227" s="45"/>
+      <c r="D227" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E227" s="30"/>
-      <c r="F227" s="30"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
       <c r="G227" s="23"/>
       <c r="H227" s="23"/>
       <c r="I227" s="23"/>
       <c r="J227" s="23"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="16"/>
-      <c r="B228" s="45"/>
-      <c r="C228" s="45"/>
-      <c r="D228" s="45"/>
-      <c r="E228" s="45"/>
-      <c r="F228" s="45"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="31"/>
+      <c r="E228" s="31"/>
+      <c r="F228" s="31"/>
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
       <c r="I228" s="21"/>
       <c r="J228" s="21"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" s="46" t="s">
+    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="46"/>
+      <c r="B229" s="32"/>
       <c r="C229" s="21" t="s">
         <v>81</v>
       </c>
@@ -4213,66 +4214,66 @@
       <c r="I229" s="23"/>
       <c r="J229" s="23"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C230" s="16"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="41" t="s">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B231" s="41" t="s">
+      <c r="B231" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C231" s="47"/>
-      <c r="D231" s="49" t="s">
+      <c r="C231" s="34"/>
+      <c r="D231" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E231" s="50"/>
-      <c r="F231" s="52" t="s">
+      <c r="E231" s="40"/>
+      <c r="F231" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G231" s="52"/>
-      <c r="H231" s="41" t="s">
+      <c r="G231" s="42"/>
+      <c r="H231" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I231" s="41"/>
-      <c r="J231" s="41"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="47"/>
-      <c r="B232" s="48"/>
-      <c r="C232" s="48"/>
-      <c r="D232" s="51"/>
-      <c r="E232" s="51"/>
-      <c r="F232" s="52"/>
-      <c r="G232" s="52"/>
-      <c r="H232" s="41"/>
-      <c r="I232" s="41"/>
-      <c r="J232" s="41"/>
-    </row>
-    <row r="233" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I231" s="33"/>
+      <c r="J231" s="33"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="34"/>
+      <c r="B232" s="72"/>
+      <c r="C232" s="72"/>
+      <c r="D232" s="41"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="42"/>
+      <c r="G232" s="42"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
+      <c r="J232" s="33"/>
+    </row>
+    <row r="233" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14">
         <v>1</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C233" s="42"/>
-      <c r="D233" s="30" t="s">
+      <c r="C233" s="70"/>
+      <c r="D233" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E233" s="30"/>
-      <c r="F233" s="30" t="s">
+      <c r="E233" s="45"/>
+      <c r="F233" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G233" s="30"/>
-      <c r="H233" s="30" t="s">
+      <c r="G233" s="45"/>
+      <c r="H233" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I233" s="30"/>
-      <c r="J233" s="30"/>
-    </row>
-    <row r="236" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I233" s="45"/>
+      <c r="J233" s="45"/>
+    </row>
+    <row r="236" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>82</v>
       </c>
@@ -4282,46 +4283,46 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" s="31" t="s">
+    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A238" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="31"/>
+      <c r="B238" s="54"/>
       <c r="C238" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D238" s="31" t="s">
+      <c r="D238" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E238" s="32"/>
-      <c r="F238" s="33" t="s">
+      <c r="E238" s="55"/>
+      <c r="F238" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="33"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="31" t="s">
+      <c r="G238" s="67"/>
+      <c r="H238" s="67"/>
+      <c r="I238" s="67"/>
+      <c r="J238" s="67"/>
+    </row>
+    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A239" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="31"/>
+      <c r="B239" s="54"/>
       <c r="C239" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D239" s="31" t="s">
+      <c r="D239" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="32"/>
-      <c r="F239" s="43" t="s">
+      <c r="E239" s="55"/>
+      <c r="F239" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G239" s="43"/>
+      <c r="G239" s="56"/>
       <c r="H239" s="28" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4331,7 @@
       </c>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -4342,23 +4343,23 @@
       <c r="I240" s="29"/>
       <c r="J240" s="29"/>
     </row>
-    <row r="241" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="34" t="s">
+    <row r="241" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="34"/>
-      <c r="C241" s="35" t="s">
+      <c r="B241" s="57"/>
+      <c r="C241" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D241" s="36"/>
-      <c r="E241" s="36"/>
-      <c r="F241" s="36"/>
+      <c r="D241" s="59"/>
+      <c r="E241" s="59"/>
+      <c r="F241" s="59"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
       <c r="J241" s="29"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -4370,22 +4371,22 @@
       <c r="I242" s="29"/>
       <c r="J242" s="29"/>
     </row>
-    <row r="243" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A243" s="37" t="s">
+    <row r="243" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A243" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="37"/>
+      <c r="B243" s="60"/>
       <c r="C243" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D243" s="37" t="s">
+      <c r="D243" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E243" s="38"/>
-      <c r="F243" s="39" t="s">
+      <c r="E243" s="61"/>
+      <c r="F243" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G243" s="40"/>
+      <c r="G243" s="63"/>
       <c r="H243" s="28" t="s">
         <v>13</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="12"/>
@@ -4402,31 +4403,31 @@
       <c r="I244" s="29"/>
       <c r="J244" s="29"/>
     </row>
-    <row r="245" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B245" s="68" t="s">
+      <c r="B245" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="69"/>
-      <c r="D245" s="69"/>
-      <c r="E245" s="69"/>
-      <c r="F245" s="70"/>
-    </row>
-    <row r="246" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="65"/>
+      <c r="D245" s="65"/>
+      <c r="E245" s="65"/>
+      <c r="F245" s="66"/>
+    </row>
+    <row r="246" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14">
         <v>1</v>
       </c>
-      <c r="B246" s="58" t="s">
+      <c r="B246" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C246" s="67"/>
-      <c r="D246" s="67"/>
-      <c r="E246" s="67"/>
-      <c r="F246" s="59"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C246" s="52"/>
+      <c r="D246" s="52"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="44"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -4438,77 +4439,77 @@
       <c r="I247" s="29"/>
       <c r="J247" s="29"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B248" s="65" t="s">
+      <c r="B248" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C248" s="66"/>
-      <c r="D248" s="54" t="s">
+      <c r="C248" s="47"/>
+      <c r="D248" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="54"/>
-      <c r="F248" s="54"/>
+      <c r="E248" s="48"/>
+      <c r="F248" s="48"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
       <c r="I248" s="29"/>
       <c r="J248" s="29"/>
     </row>
-    <row r="249" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14">
         <v>1</v>
       </c>
-      <c r="B249" s="58" t="s">
+      <c r="B249" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C249" s="59"/>
-      <c r="D249" s="44" t="b">
+      <c r="C249" s="44"/>
+      <c r="D249" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="E249" s="30"/>
-      <c r="F249" s="30"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
       <c r="J249" s="29"/>
     </row>
-    <row r="250" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14">
         <v>2</v>
       </c>
-      <c r="B250" s="56" t="s">
+      <c r="B250" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C250" s="57"/>
-      <c r="D250" s="55" t="b">
+      <c r="C250" s="50"/>
+      <c r="D250" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="E250" s="55"/>
-      <c r="F250" s="55"/>
+      <c r="E250" s="68"/>
+      <c r="F250" s="68"/>
       <c r="G250" s="29"/>
       <c r="H250" s="29"/>
       <c r="I250" s="29"/>
       <c r="J250" s="29"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="16"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="45"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="45"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="31"/>
+      <c r="F251" s="31"/>
       <c r="G251" s="26"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
       <c r="J251" s="26"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A252" s="46" t="s">
+    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A252" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B252" s="46"/>
+      <c r="B252" s="32"/>
       <c r="C252" s="26"/>
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
@@ -4518,66 +4519,66 @@
       <c r="I252" s="29"/>
       <c r="J252" s="29"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C253" s="16"/>
     </row>
-    <row r="254" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="41" t="s">
+    <row r="254" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B254" s="60" t="s">
+      <c r="B254" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C254" s="61"/>
-      <c r="D254" s="49" t="s">
+      <c r="C254" s="36"/>
+      <c r="D254" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E254" s="50"/>
-      <c r="F254" s="52" t="s">
+      <c r="E254" s="40"/>
+      <c r="F254" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G254" s="52"/>
-      <c r="H254" s="41" t="s">
+      <c r="G254" s="42"/>
+      <c r="H254" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I254" s="41"/>
-      <c r="J254" s="41"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A255" s="47"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="63"/>
-      <c r="D255" s="51"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="52"/>
-      <c r="G255" s="52"/>
-      <c r="H255" s="41"/>
-      <c r="I255" s="41"/>
-      <c r="J255" s="41"/>
-    </row>
-    <row r="256" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I254" s="33"/>
+      <c r="J254" s="33"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" s="34"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="41"/>
+      <c r="E255" s="41"/>
+      <c r="F255" s="42"/>
+      <c r="G255" s="42"/>
+      <c r="H255" s="33"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+    </row>
+    <row r="256" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14">
         <v>1</v>
       </c>
-      <c r="B256" s="58" t="s">
+      <c r="B256" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C256" s="59"/>
-      <c r="D256" s="30" t="b">
+      <c r="C256" s="44"/>
+      <c r="D256" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="E256" s="30"/>
-      <c r="F256" s="30" t="s">
+      <c r="E256" s="45"/>
+      <c r="F256" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G256" s="30"/>
-      <c r="H256" s="30" t="s">
+      <c r="G256" s="45"/>
+      <c r="H256" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I256" s="30"/>
-      <c r="J256" s="30"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I256" s="45"/>
+      <c r="J256" s="45"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
       <c r="B257" s="29"/>
       <c r="C257" s="19"/>
@@ -4589,7 +4590,7 @@
       <c r="I257" s="29"/>
       <c r="J257" s="29"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
       <c r="B258" s="29"/>
       <c r="C258" s="19"/>
@@ -4601,7 +4602,7 @@
       <c r="I258" s="29"/>
       <c r="J258" s="29"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -4613,59 +4614,59 @@
       <c r="I259" s="29"/>
       <c r="J259" s="29"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B260" s="65" t="s">
+      <c r="B260" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C260" s="66"/>
-      <c r="D260" s="54" t="s">
+      <c r="C260" s="47"/>
+      <c r="D260" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E260" s="54"/>
-      <c r="F260" s="54"/>
+      <c r="E260" s="48"/>
+      <c r="F260" s="48"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
       <c r="J260" s="29"/>
     </row>
-    <row r="261" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14">
         <v>2</v>
       </c>
-      <c r="B261" s="56" t="s">
+      <c r="B261" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C261" s="57"/>
-      <c r="D261" s="55" t="b">
+      <c r="C261" s="50"/>
+      <c r="D261" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="E261" s="55"/>
-      <c r="F261" s="55"/>
+      <c r="E261" s="68"/>
+      <c r="F261" s="68"/>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
       <c r="I261" s="29"/>
       <c r="J261" s="29"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="16"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
-      <c r="D262" s="45"/>
-      <c r="E262" s="45"/>
-      <c r="F262" s="45"/>
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="31"/>
+      <c r="F262" s="31"/>
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
       <c r="I262" s="26"/>
       <c r="J262" s="26"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="46" t="s">
+    <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A263" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B263" s="46"/>
+      <c r="B263" s="32"/>
       <c r="C263" s="26"/>
       <c r="D263" s="29"/>
       <c r="E263" s="29"/>
@@ -4675,66 +4676,66 @@
       <c r="I263" s="29"/>
       <c r="J263" s="29"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C264" s="16"/>
     </row>
-    <row r="265" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="41" t="s">
+    <row r="265" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B265" s="60" t="s">
+      <c r="B265" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C265" s="61"/>
-      <c r="D265" s="49" t="s">
+      <c r="C265" s="36"/>
+      <c r="D265" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E265" s="50"/>
-      <c r="F265" s="52" t="s">
+      <c r="E265" s="40"/>
+      <c r="F265" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G265" s="52"/>
-      <c r="H265" s="41" t="s">
+      <c r="G265" s="42"/>
+      <c r="H265" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I265" s="41"/>
-      <c r="J265" s="41"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="47"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="63"/>
-      <c r="D266" s="51"/>
-      <c r="E266" s="51"/>
-      <c r="F266" s="52"/>
-      <c r="G266" s="52"/>
-      <c r="H266" s="41"/>
-      <c r="I266" s="41"/>
-      <c r="J266" s="41"/>
-    </row>
-    <row r="267" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I265" s="33"/>
+      <c r="J265" s="33"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266" s="34"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="41"/>
+      <c r="F266" s="42"/>
+      <c r="G266" s="42"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
+      <c r="J266" s="33"/>
+    </row>
+    <row r="267" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14">
         <v>1</v>
       </c>
-      <c r="B267" s="58" t="s">
+      <c r="B267" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C267" s="59"/>
-      <c r="D267" s="30" t="b">
+      <c r="C267" s="44"/>
+      <c r="D267" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="E267" s="30"/>
-      <c r="F267" s="30" t="s">
+      <c r="E267" s="45"/>
+      <c r="F267" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G267" s="30"/>
-      <c r="H267" s="30" t="s">
+      <c r="G267" s="45"/>
+      <c r="H267" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I267" s="30"/>
-      <c r="J267" s="30"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I267" s="45"/>
+      <c r="J267" s="45"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
       <c r="B268" s="29"/>
       <c r="C268" s="19"/>
@@ -4746,7 +4747,7 @@
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
     </row>
-    <row r="272" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>89</v>
       </c>
@@ -4756,46 +4757,46 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="31" t="s">
+    <row r="274" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A274" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B274" s="31"/>
+      <c r="B274" s="54"/>
       <c r="C274" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D274" s="31" t="s">
+      <c r="D274" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E274" s="32"/>
-      <c r="F274" s="33" t="s">
+      <c r="E274" s="55"/>
+      <c r="F274" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="G274" s="33"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="33"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="31" t="s">
+      <c r="G274" s="67"/>
+      <c r="H274" s="67"/>
+      <c r="I274" s="67"/>
+      <c r="J274" s="67"/>
+    </row>
+    <row r="275" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A275" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B275" s="31"/>
+      <c r="B275" s="54"/>
       <c r="C275" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D275" s="31" t="s">
+      <c r="D275" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="32"/>
-      <c r="F275" s="43" t="s">
+      <c r="E275" s="55"/>
+      <c r="F275" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G275" s="43"/>
+      <c r="G275" s="56"/>
       <c r="H275" s="28" t="s">
         <v>8</v>
       </c>
@@ -4804,7 +4805,7 @@
       </c>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -4816,23 +4817,23 @@
       <c r="I276" s="29"/>
       <c r="J276" s="29"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A277" s="34" t="s">
+    <row r="277" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A277" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B277" s="34"/>
-      <c r="C277" s="35" t="s">
+      <c r="B277" s="57"/>
+      <c r="C277" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D277" s="36"/>
-      <c r="E277" s="36"/>
-      <c r="F277" s="36"/>
+      <c r="D277" s="59"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
       <c r="I277" s="29"/>
       <c r="J277" s="29"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -4844,22 +4845,22 @@
       <c r="I278" s="29"/>
       <c r="J278" s="29"/>
     </row>
-    <row r="279" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A279" s="37" t="s">
+    <row r="279" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A279" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B279" s="37"/>
+      <c r="B279" s="60"/>
       <c r="C279" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D279" s="37" t="s">
+      <c r="D279" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E279" s="38"/>
-      <c r="F279" s="39" t="s">
+      <c r="E279" s="61"/>
+      <c r="F279" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G279" s="40"/>
+      <c r="G279" s="63"/>
       <c r="H279" s="28" t="s">
         <v>13</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="12"/>
@@ -4876,31 +4877,31 @@
       <c r="I280" s="29"/>
       <c r="J280" s="29"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B281" s="68" t="s">
+      <c r="B281" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="70"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C281" s="65"/>
+      <c r="D281" s="65"/>
+      <c r="E281" s="65"/>
+      <c r="F281" s="66"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="14">
         <v>1</v>
       </c>
-      <c r="B282" s="58" t="s">
+      <c r="B282" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C282" s="67"/>
-      <c r="D282" s="67"/>
-      <c r="E282" s="67"/>
-      <c r="F282" s="59"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C282" s="52"/>
+      <c r="D282" s="52"/>
+      <c r="E282" s="52"/>
+      <c r="F282" s="44"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="29"/>
@@ -4912,59 +4913,59 @@
       <c r="I283" s="29"/>
       <c r="J283" s="29"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B284" s="65" t="s">
+      <c r="B284" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C284" s="66"/>
-      <c r="D284" s="54" t="s">
+      <c r="C284" s="47"/>
+      <c r="D284" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E284" s="54"/>
-      <c r="F284" s="54"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="48"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
       <c r="I284" s="29"/>
       <c r="J284" s="29"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="14">
         <v>1</v>
       </c>
-      <c r="B285" s="58" t="s">
+      <c r="B285" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C285" s="59"/>
-      <c r="D285" s="71">
+      <c r="C285" s="44"/>
+      <c r="D285" s="53">
         <v>15</v>
       </c>
-      <c r="E285" s="71"/>
-      <c r="F285" s="71"/>
+      <c r="E285" s="53"/>
+      <c r="F285" s="53"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
       <c r="I285" s="29"/>
       <c r="J285" s="29"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="16"/>
-      <c r="B286" s="64"/>
-      <c r="C286" s="64"/>
-      <c r="D286" s="45"/>
-      <c r="E286" s="45"/>
-      <c r="F286" s="45"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="31"/>
+      <c r="E286" s="31"/>
+      <c r="F286" s="31"/>
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
       <c r="I286" s="26"/>
       <c r="J286" s="26"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A287" s="46" t="s">
+    <row r="287" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A287" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B287" s="46"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29"/>
       <c r="E287" s="29"/>
@@ -4974,66 +4975,66 @@
       <c r="I287" s="29"/>
       <c r="J287" s="29"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C288" s="16"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A289" s="41" t="s">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B289" s="60" t="s">
+      <c r="B289" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C289" s="61"/>
-      <c r="D289" s="49" t="s">
+      <c r="C289" s="36"/>
+      <c r="D289" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E289" s="50"/>
-      <c r="F289" s="52" t="s">
+      <c r="E289" s="40"/>
+      <c r="F289" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G289" s="52"/>
-      <c r="H289" s="41" t="s">
+      <c r="G289" s="42"/>
+      <c r="H289" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I289" s="41"/>
-      <c r="J289" s="41"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A290" s="47"/>
-      <c r="B290" s="62"/>
-      <c r="C290" s="63"/>
-      <c r="D290" s="51"/>
-      <c r="E290" s="51"/>
-      <c r="F290" s="52"/>
-      <c r="G290" s="52"/>
-      <c r="H290" s="41"/>
-      <c r="I290" s="41"/>
-      <c r="J290" s="41"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I289" s="33"/>
+      <c r="J289" s="33"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290" s="34"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="38"/>
+      <c r="D290" s="41"/>
+      <c r="E290" s="41"/>
+      <c r="F290" s="42"/>
+      <c r="G290" s="42"/>
+      <c r="H290" s="33"/>
+      <c r="I290" s="33"/>
+      <c r="J290" s="33"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="14">
         <v>1</v>
       </c>
-      <c r="B291" s="58" t="s">
+      <c r="B291" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C291" s="59"/>
-      <c r="D291" s="30" t="b">
+      <c r="C291" s="44"/>
+      <c r="D291" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="E291" s="30"/>
-      <c r="F291" s="30" t="s">
+      <c r="E291" s="45"/>
+      <c r="F291" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="30"/>
-      <c r="H291" s="30" t="s">
+      <c r="G291" s="45"/>
+      <c r="H291" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I291" s="30"/>
-      <c r="J291" s="30"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I291" s="45"/>
+      <c r="J291" s="45"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
       <c r="B292" s="29"/>
       <c r="C292" s="19"/>
@@ -5045,7 +5046,7 @@
       <c r="I292" s="29"/>
       <c r="J292" s="29"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="18"/>
       <c r="B293" s="29"/>
       <c r="C293" s="19"/>
@@ -5057,7 +5058,7 @@
       <c r="I293" s="29"/>
       <c r="J293" s="29"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="29"/>
@@ -5069,59 +5070,59 @@
       <c r="I294" s="29"/>
       <c r="J294" s="29"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B295" s="65" t="s">
+      <c r="B295" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C295" s="66"/>
-      <c r="D295" s="54" t="s">
+      <c r="C295" s="47"/>
+      <c r="D295" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E295" s="54"/>
-      <c r="F295" s="54"/>
+      <c r="E295" s="48"/>
+      <c r="F295" s="48"/>
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
       <c r="I295" s="29"/>
       <c r="J295" s="29"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="14">
         <v>2</v>
       </c>
-      <c r="B296" s="56" t="s">
+      <c r="B296" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C296" s="57"/>
-      <c r="D296" s="72">
+      <c r="C296" s="50"/>
+      <c r="D296" s="51">
         <v>0</v>
       </c>
-      <c r="E296" s="72"/>
-      <c r="F296" s="72"/>
+      <c r="E296" s="51"/>
+      <c r="F296" s="51"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
       <c r="I296" s="29"/>
       <c r="J296" s="29"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
-      <c r="B297" s="64"/>
-      <c r="C297" s="64"/>
-      <c r="D297" s="45"/>
-      <c r="E297" s="45"/>
-      <c r="F297" s="45"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="31"/>
+      <c r="F297" s="31"/>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
       <c r="I297" s="26"/>
       <c r="J297" s="26"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A298" s="46" t="s">
+    <row r="298" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A298" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B298" s="46"/>
+      <c r="B298" s="32"/>
       <c r="C298" s="26"/>
       <c r="D298" s="29"/>
       <c r="E298" s="29"/>
@@ -5131,66 +5132,66 @@
       <c r="I298" s="29"/>
       <c r="J298" s="29"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299" s="16"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A300" s="41" t="s">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B300" s="60" t="s">
+      <c r="B300" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C300" s="61"/>
-      <c r="D300" s="49" t="s">
+      <c r="C300" s="36"/>
+      <c r="D300" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E300" s="50"/>
-      <c r="F300" s="52" t="s">
+      <c r="E300" s="40"/>
+      <c r="F300" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G300" s="52"/>
-      <c r="H300" s="41" t="s">
+      <c r="G300" s="42"/>
+      <c r="H300" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I300" s="41"/>
-      <c r="J300" s="41"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A301" s="47"/>
-      <c r="B301" s="62"/>
-      <c r="C301" s="63"/>
-      <c r="D301" s="51"/>
-      <c r="E301" s="51"/>
-      <c r="F301" s="52"/>
-      <c r="G301" s="52"/>
-      <c r="H301" s="41"/>
-      <c r="I301" s="41"/>
-      <c r="J301" s="41"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I300" s="33"/>
+      <c r="J300" s="33"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301" s="34"/>
+      <c r="B301" s="37"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="41"/>
+      <c r="E301" s="41"/>
+      <c r="F301" s="42"/>
+      <c r="G301" s="42"/>
+      <c r="H301" s="33"/>
+      <c r="I301" s="33"/>
+      <c r="J301" s="33"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="14">
         <v>1</v>
       </c>
-      <c r="B302" s="58" t="s">
+      <c r="B302" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C302" s="59"/>
-      <c r="D302" s="30" t="b">
+      <c r="C302" s="44"/>
+      <c r="D302" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="E302" s="30"/>
-      <c r="F302" s="30" t="s">
+      <c r="E302" s="45"/>
+      <c r="F302" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G302" s="30"/>
-      <c r="H302" s="30" t="s">
+      <c r="G302" s="45"/>
+      <c r="H302" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I302" s="30"/>
-      <c r="J302" s="30"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I302" s="45"/>
+      <c r="J302" s="45"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="18"/>
       <c r="B303" s="29"/>
       <c r="C303" s="19"/>
@@ -5202,7 +5203,7 @@
       <c r="I303" s="29"/>
       <c r="J303" s="29"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="29"/>
@@ -5214,59 +5215,59 @@
       <c r="I304" s="29"/>
       <c r="J304" s="29"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B305" s="65" t="s">
+      <c r="B305" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C305" s="66"/>
-      <c r="D305" s="54" t="s">
+      <c r="C305" s="47"/>
+      <c r="D305" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E305" s="54"/>
-      <c r="F305" s="54"/>
+      <c r="E305" s="48"/>
+      <c r="F305" s="48"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
       <c r="I305" s="29"/>
       <c r="J305" s="29"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="14">
         <v>2</v>
       </c>
-      <c r="B306" s="56" t="s">
+      <c r="B306" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C306" s="57"/>
-      <c r="D306" s="72" t="s">
+      <c r="C306" s="50"/>
+      <c r="D306" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E306" s="72"/>
-      <c r="F306" s="72"/>
+      <c r="E306" s="51"/>
+      <c r="F306" s="51"/>
       <c r="G306" s="29"/>
       <c r="H306" s="29"/>
       <c r="I306" s="29"/>
       <c r="J306" s="29"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="16"/>
-      <c r="B307" s="64"/>
-      <c r="C307" s="64"/>
-      <c r="D307" s="45"/>
-      <c r="E307" s="45"/>
-      <c r="F307" s="45"/>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
+      <c r="D307" s="31"/>
+      <c r="E307" s="31"/>
+      <c r="F307" s="31"/>
       <c r="G307" s="26"/>
       <c r="H307" s="26"/>
       <c r="I307" s="26"/>
       <c r="J307" s="26"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A308" s="46" t="s">
+    <row r="308" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A308" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B308" s="46"/>
+      <c r="B308" s="32"/>
       <c r="C308" s="26"/>
       <c r="D308" s="29"/>
       <c r="E308" s="29"/>
@@ -5276,125 +5277,412 @@
       <c r="I308" s="29"/>
       <c r="J308" s="29"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309" s="16"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A310" s="41" t="s">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B310" s="60" t="s">
+      <c r="B310" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C310" s="61"/>
-      <c r="D310" s="49" t="s">
+      <c r="C310" s="36"/>
+      <c r="D310" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E310" s="50"/>
-      <c r="F310" s="52" t="s">
+      <c r="E310" s="40"/>
+      <c r="F310" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="52"/>
-      <c r="H310" s="41" t="s">
+      <c r="G310" s="42"/>
+      <c r="H310" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I310" s="41"/>
-      <c r="J310" s="41"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A311" s="47"/>
-      <c r="B311" s="62"/>
-      <c r="C311" s="63"/>
-      <c r="D311" s="51"/>
-      <c r="E311" s="51"/>
-      <c r="F311" s="52"/>
-      <c r="G311" s="52"/>
-      <c r="H311" s="41"/>
-      <c r="I311" s="41"/>
-      <c r="J311" s="41"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I310" s="33"/>
+      <c r="J310" s="33"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="34"/>
+      <c r="B311" s="37"/>
+      <c r="C311" s="38"/>
+      <c r="D311" s="41"/>
+      <c r="E311" s="41"/>
+      <c r="F311" s="42"/>
+      <c r="G311" s="42"/>
+      <c r="H311" s="33"/>
+      <c r="I311" s="33"/>
+      <c r="J311" s="33"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="14">
         <v>1</v>
       </c>
-      <c r="B312" s="58" t="s">
+      <c r="B312" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C312" s="59"/>
-      <c r="D312" s="30" t="b">
+      <c r="C312" s="44"/>
+      <c r="D312" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="E312" s="30"/>
-      <c r="F312" s="30" t="s">
+      <c r="E312" s="45"/>
+      <c r="F312" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G312" s="30"/>
-      <c r="H312" s="30" t="s">
+      <c r="G312" s="45"/>
+      <c r="H312" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I312" s="30"/>
-      <c r="J312" s="30"/>
+      <c r="I312" s="45"/>
+      <c r="J312" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="427">
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:C311"/>
-    <mergeCell ref="D310:E311"/>
-    <mergeCell ref="F310:G311"/>
-    <mergeCell ref="H310:J311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="H312:J312"/>
-    <mergeCell ref="H300:J301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="H302:J302"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="D306:F306"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:F295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:C301"/>
-    <mergeCell ref="D300:E301"/>
-    <mergeCell ref="F300:G301"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:C290"/>
-    <mergeCell ref="D289:E290"/>
-    <mergeCell ref="F289:G290"/>
-    <mergeCell ref="H289:J290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:F277"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:J197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:J216"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:C192"/>
+    <mergeCell ref="D191:E192"/>
+    <mergeCell ref="F191:G192"/>
+    <mergeCell ref="H191:J192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="H170:J171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:C171"/>
+    <mergeCell ref="D170:E171"/>
+    <mergeCell ref="F170:G171"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H83:J84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:J177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:C147"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="F146:G147"/>
+    <mergeCell ref="H146:J147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:J131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:C126"/>
+    <mergeCell ref="D125:E126"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="H125:J126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:E105"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="H104:J105"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:C84"/>
+    <mergeCell ref="D83:E84"/>
+    <mergeCell ref="F83:G84"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:C213"/>
+    <mergeCell ref="D212:E213"/>
+    <mergeCell ref="F212:G213"/>
+    <mergeCell ref="H212:J213"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:C232"/>
+    <mergeCell ref="D231:E232"/>
+    <mergeCell ref="F231:G232"/>
+    <mergeCell ref="H231:J232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:J238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:F248"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:C255"/>
+    <mergeCell ref="D254:E255"/>
+    <mergeCell ref="F254:G255"/>
     <mergeCell ref="H265:J266"/>
     <mergeCell ref="B267:C267"/>
     <mergeCell ref="D267:E267"/>
@@ -5419,353 +5707,66 @@
     <mergeCell ref="D256:E256"/>
     <mergeCell ref="F256:G256"/>
     <mergeCell ref="H256:J256"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="D260:F260"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:C255"/>
-    <mergeCell ref="D254:E255"/>
-    <mergeCell ref="F254:G255"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="C241:F241"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:F248"/>
-    <mergeCell ref="H231:J232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:J238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:C232"/>
-    <mergeCell ref="D231:E232"/>
-    <mergeCell ref="F231:G232"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:C213"/>
-    <mergeCell ref="D212:E213"/>
-    <mergeCell ref="F212:G213"/>
-    <mergeCell ref="H212:J213"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:C84"/>
-    <mergeCell ref="D83:E84"/>
-    <mergeCell ref="F83:G84"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:C126"/>
-    <mergeCell ref="D125:E126"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:J126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:C147"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="F146:G147"/>
-    <mergeCell ref="H146:J147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:J131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:J177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:E105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="H104:J105"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H83:J84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:C171"/>
-    <mergeCell ref="D170:E171"/>
-    <mergeCell ref="F170:G171"/>
-    <mergeCell ref="H170:J171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="H172:J172"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="D191:E192"/>
-    <mergeCell ref="F191:G192"/>
-    <mergeCell ref="H191:J192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:J197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:J216"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:F219"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:F277"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:C290"/>
+    <mergeCell ref="D289:E290"/>
+    <mergeCell ref="F289:G290"/>
+    <mergeCell ref="H289:J290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:F295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:F296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:C301"/>
+    <mergeCell ref="D300:E301"/>
+    <mergeCell ref="F300:G301"/>
+    <mergeCell ref="H300:J301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="H302:J302"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="D306:F306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:C311"/>
+    <mergeCell ref="D310:E311"/>
+    <mergeCell ref="F310:G311"/>
+    <mergeCell ref="H310:J311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:J312"/>
   </mergeCells>
-  <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.75" right="0.19791666666666666" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnitTest/Test Plan.xlsx
+++ b/UnitTest/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISD\ISD.ICT.20201.08\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3B027-B714-4011-BB32-672FED5E9DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247EF10-638F-4C68-A3E4-1BD9E7576B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="138">
   <si>
     <t>5. Test Case Details</t>
   </si>
@@ -316,6 +316,129 @@
   </si>
   <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>5.6. Test Case Specification for Test Case "ValidateBarcodeTest"</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>Test the method validateBarcode</t>
+  </si>
+  <si>
+    <t>Phạm Nhật Linh</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Thông</t>
+  </si>
+  <si>
+    <t>Review method validateBarcode</t>
+  </si>
+  <si>
+    <t>27/11/2020</t>
+  </si>
+  <si>
+    <t>Customer enters bike barcode to rent bike</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>input barcode is null</t>
+  </si>
+  <si>
+    <t>click submit bike barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.1. Test Case 1 </t>
+  </si>
+  <si>
+    <t>Error: Invalid Barcode</t>
+  </si>
+  <si>
+    <t>5.6.2. Test Case 2</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>asbasced</t>
+  </si>
+  <si>
+    <t>input barcode has more than 6 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.3. Test Case 3 </t>
+  </si>
+  <si>
+    <t>12ab@#</t>
+  </si>
+  <si>
+    <t>input barcode has invalid character</t>
+  </si>
+  <si>
+    <t>5.6.4. Test Case 4</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>1a2b3c</t>
+  </si>
+  <si>
+    <t>input barcode has 6 characters, each one is a letter or a digit</t>
+  </si>
+  <si>
+    <t>Valid Barcode</t>
+  </si>
+  <si>
+    <t>5.7. Test Case Specification for Test Case "CheckRentingBike"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.1. Test Case 1 </t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Test the method checkRentingBike</t>
+  </si>
+  <si>
+    <t>Review method checkRentingBike</t>
+  </si>
+  <si>
+    <t>Customer wants to return bike</t>
+  </si>
+  <si>
+    <t>bike's station</t>
+  </si>
+  <si>
+    <t>the renting bike has null station</t>
+  </si>
+  <si>
+    <t>check renting bike's station</t>
+  </si>
+  <si>
+    <t>Valid bike to return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.2. Test Case 2 </t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>Truong Dinh</t>
+  </si>
+  <si>
+    <t>the renting bike has station named "Truong Dinh"</t>
+  </si>
+  <si>
+    <t>Invalid bike to return</t>
   </si>
 </sst>
 </file>
@@ -326,7 +449,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +536,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,14 +709,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -658,85 +790,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +824,58 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -767,25 +885,58 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1067,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:K441"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A295" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A428" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D441" sqref="D441:E441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1108,42 +1259,42 @@
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1165,16 +1316,16 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1193,21 +1344,21 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1228,25 +1379,25 @@
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -1264,15 +1415,15 @@
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1282,15 +1433,15 @@
       <c r="A15" s="14">
         <v>1</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46">
         <v>3456789</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1298,21 +1449,21 @@
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1328,60 +1479,60 @@
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="52"/>
+      <c r="F19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="33" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1390,41 +1541,41 @@
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="67" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="24" t="s">
         <v>8</v>
       </c>
@@ -1446,16 +1597,16 @@
       <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -1474,21 +1625,21 @@
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="24" t="s">
         <v>13</v>
       </c>
@@ -1518,25 +1669,25 @@
       <c r="A32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>1</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
@@ -1554,15 +1705,15 @@
       <c r="A35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -1572,15 +1723,15 @@
       <c r="A36" s="14">
         <v>1</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45" t="s">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -1588,21 +1739,21 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="21" t="s">
         <v>57</v>
       </c>
@@ -1618,60 +1769,60 @@
       <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="54"/>
+      <c r="H40" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>1</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1680,41 +1831,41 @@
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="67" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56" t="s">
+      <c r="E48" s="43"/>
+      <c r="F48" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="24" t="s">
         <v>8</v>
       </c>
@@ -1736,16 +1887,16 @@
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58" t="s">
+      <c r="B50" s="35"/>
+      <c r="C50" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
@@ -1764,21 +1915,21 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="63"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="24" t="s">
         <v>13</v>
       </c>
@@ -1799,25 +1950,25 @@
       <c r="A54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>1</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
@@ -1835,15 +1986,15 @@
       <c r="A57" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48" t="s">
+      <c r="C57" s="59"/>
+      <c r="D57" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
@@ -1853,15 +2004,15 @@
       <c r="A58" s="14">
         <v>1</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
@@ -1869,21 +2020,21 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>59</v>
       </c>
@@ -1899,60 +2050,60 @@
       <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="39" t="s">
+      <c r="C62" s="49"/>
+      <c r="D62" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="42" t="s">
+      <c r="E62" s="52"/>
+      <c r="F62" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="33" t="s">
+      <c r="G62" s="54"/>
+      <c r="H62" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
     </row>
     <row r="64" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>1</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="45" t="s">
+      <c r="C64" s="55"/>
+      <c r="D64" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45" t="s">
+      <c r="E64" s="46"/>
+      <c r="F64" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45" t="s">
+      <c r="G64" s="46"/>
+      <c r="H64" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
@@ -1983,41 +2134,41 @@
       <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="55"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="55"/>
-      <c r="F68" s="67" t="s">
+      <c r="E68" s="43"/>
+      <c r="F68" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="55"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="55"/>
-      <c r="F69" s="56" t="s">
+      <c r="E69" s="43"/>
+      <c r="F69" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="56"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="24" t="s">
         <v>8</v>
       </c>
@@ -2039,16 +2190,16 @@
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="58" t="s">
+      <c r="B71" s="35"/>
+      <c r="C71" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
@@ -2067,21 +2218,21 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="61"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="62" t="s">
+      <c r="E73" s="39"/>
+      <c r="F73" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="63"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="24" t="s">
         <v>13</v>
       </c>
@@ -2102,25 +2253,25 @@
       <c r="A75" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="23"/>
@@ -2138,15 +2289,15 @@
       <c r="A78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48" t="s">
+      <c r="C78" s="59"/>
+      <c r="D78" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
@@ -2156,15 +2307,15 @@
       <c r="A79" s="14">
         <v>1</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45" t="s">
+      <c r="C79" s="46"/>
+      <c r="D79" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
@@ -2172,21 +2323,21 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
     </row>
     <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>64</v>
       </c>
@@ -2202,60 +2353,60 @@
       <c r="C82" s="16"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="39" t="s">
+      <c r="C83" s="49"/>
+      <c r="D83" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="42" t="s">
+      <c r="E83" s="52"/>
+      <c r="F83" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="33" t="s">
+      <c r="G83" s="54"/>
+      <c r="H83" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>1</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="45" t="s">
+      <c r="C85" s="55"/>
+      <c r="D85" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45" t="s">
+      <c r="E85" s="46"/>
+      <c r="F85" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45" t="s">
+      <c r="G85" s="46"/>
+      <c r="H85" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
@@ -2276,41 +2427,41 @@
       <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="55"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="67" t="s">
+      <c r="E89" s="43"/>
+      <c r="F89" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
     </row>
     <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="55"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="55"/>
-      <c r="F90" s="56" t="s">
+      <c r="E90" s="43"/>
+      <c r="F90" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="56"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="24" t="s">
         <v>8</v>
       </c>
@@ -2332,16 +2483,16 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58" t="s">
+      <c r="B92" s="35"/>
+      <c r="C92" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
@@ -2360,21 +2511,21 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="60" t="s">
+      <c r="A94" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="61"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="60" t="s">
+      <c r="D94" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62" t="s">
+      <c r="E94" s="39"/>
+      <c r="F94" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G94" s="63"/>
+      <c r="G94" s="41"/>
       <c r="H94" s="24" t="s">
         <v>13</v>
       </c>
@@ -2395,25 +2546,25 @@
       <c r="A96" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>1</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="23"/>
@@ -2431,15 +2582,15 @@
       <c r="A99" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
+      <c r="C99" s="59"/>
+      <c r="D99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
@@ -2449,15 +2600,15 @@
       <c r="A100" s="14">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45" t="s">
+      <c r="C100" s="46"/>
+      <c r="D100" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
@@ -2465,21 +2616,21 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
     </row>
     <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="32"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>65</v>
       </c>
@@ -2495,60 +2646,60 @@
       <c r="C103" s="16"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="39" t="s">
+      <c r="C104" s="49"/>
+      <c r="D104" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="40"/>
-      <c r="F104" s="42" t="s">
+      <c r="E104" s="52"/>
+      <c r="F104" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="33" t="s">
+      <c r="G104" s="54"/>
+      <c r="H104" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
     </row>
     <row r="106" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>1</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="70"/>
-      <c r="D106" s="45" t="s">
+      <c r="C106" s="55"/>
+      <c r="D106" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45" t="s">
+      <c r="E106" s="46"/>
+      <c r="F106" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45" t="s">
+      <c r="G106" s="46"/>
+      <c r="H106" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -2557,41 +2708,41 @@
       <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="55"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D110" s="54" t="s">
+      <c r="D110" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="55"/>
-      <c r="F110" s="67" t="s">
+      <c r="E110" s="43"/>
+      <c r="F110" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="55"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="54" t="s">
+      <c r="D111" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="55"/>
-      <c r="F111" s="56" t="s">
+      <c r="E111" s="43"/>
+      <c r="F111" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G111" s="56"/>
+      <c r="G111" s="45"/>
       <c r="H111" s="24" t="s">
         <v>8</v>
       </c>
@@ -2613,16 +2764,16 @@
       <c r="J112" s="23"/>
     </row>
     <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="57" t="s">
+      <c r="A113" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="57"/>
-      <c r="C113" s="58" t="s">
+      <c r="B113" s="35"/>
+      <c r="C113" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
@@ -2641,21 +2792,21 @@
       <c r="J114" s="23"/>
     </row>
     <row r="115" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="61"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="60" t="s">
+      <c r="D115" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="61"/>
-      <c r="F115" s="62" t="s">
+      <c r="E115" s="39"/>
+      <c r="F115" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G115" s="63"/>
+      <c r="G115" s="41"/>
       <c r="H115" s="24" t="s">
         <v>13</v>
       </c>
@@ -2676,25 +2827,25 @@
       <c r="A117" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="71"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>1</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
@@ -2712,15 +2863,15 @@
       <c r="A120" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48" t="s">
+      <c r="C120" s="59"/>
+      <c r="D120" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
@@ -2730,15 +2881,15 @@
       <c r="A121" s="14">
         <v>1</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45" t="s">
+      <c r="C121" s="46"/>
+      <c r="D121" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
@@ -2746,21 +2897,21 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
     </row>
     <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="32"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>65</v>
       </c>
@@ -2776,60 +2927,60 @@
       <c r="C124" s="16"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="34"/>
-      <c r="D125" s="39" t="s">
+      <c r="C125" s="49"/>
+      <c r="D125" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="40"/>
-      <c r="F125" s="42" t="s">
+      <c r="E125" s="52"/>
+      <c r="F125" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="33" t="s">
+      <c r="G125" s="54"/>
+      <c r="H125" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="33"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
     </row>
     <row r="127" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>1</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="45" t="s">
+      <c r="C127" s="55"/>
+      <c r="D127" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45" t="s">
+      <c r="E127" s="46"/>
+      <c r="F127" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45" t="s">
+      <c r="G127" s="46"/>
+      <c r="H127" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="46"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
@@ -2838,41 +2989,41 @@
       <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="55"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D131" s="54" t="s">
+      <c r="D131" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="55"/>
-      <c r="F131" s="67" t="s">
+      <c r="E131" s="43"/>
+      <c r="F131" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="44"/>
     </row>
     <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="54" t="s">
+      <c r="D132" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56" t="s">
+      <c r="E132" s="43"/>
+      <c r="F132" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G132" s="56"/>
+      <c r="G132" s="45"/>
       <c r="H132" s="24" t="s">
         <v>8</v>
       </c>
@@ -2894,16 +3045,16 @@
       <c r="J133" s="23"/>
     </row>
     <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="57"/>
-      <c r="C134" s="58" t="s">
+      <c r="B134" s="35"/>
+      <c r="C134" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
       <c r="G134" s="23"/>
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
@@ -2922,21 +3073,21 @@
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="61"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="60" t="s">
+      <c r="D136" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="61"/>
-      <c r="F136" s="62" t="s">
+      <c r="E136" s="39"/>
+      <c r="F136" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="63"/>
+      <c r="G136" s="41"/>
       <c r="H136" s="24" t="s">
         <v>13</v>
       </c>
@@ -2957,25 +3108,25 @@
       <c r="A138" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="71" t="s">
+      <c r="B138" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="71"/>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="58"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>1</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="45"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="23"/>
@@ -2993,15 +3144,15 @@
       <c r="A141" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48" t="s">
+      <c r="C141" s="59"/>
+      <c r="D141" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
@@ -3011,15 +3162,15 @@
       <c r="A142" s="14">
         <v>1</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45" t="s">
+      <c r="C142" s="46"/>
+      <c r="D142" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="23"/>
       <c r="H142" s="23"/>
       <c r="I142" s="23"/>
@@ -3027,21 +3178,21 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="16"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
     </row>
     <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="32"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>69</v>
       </c>
@@ -3057,60 +3208,60 @@
       <c r="C145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="39" t="s">
+      <c r="C146" s="49"/>
+      <c r="D146" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="40"/>
-      <c r="F146" s="42" t="s">
+      <c r="E146" s="52"/>
+      <c r="F146" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="33" t="s">
+      <c r="G146" s="54"/>
+      <c r="H146" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="48"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="34"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="72"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="33"/>
+      <c r="A147" s="49"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="48"/>
     </row>
     <row r="148" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>1</v>
       </c>
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="70"/>
-      <c r="D148" s="45" t="s">
+      <c r="C148" s="55"/>
+      <c r="D148" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45" t="s">
+      <c r="E148" s="46"/>
+      <c r="F148" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45" t="s">
+      <c r="G148" s="46"/>
+      <c r="H148" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
     </row>
     <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -3129,41 +3280,41 @@
       <c r="B154" s="6"/>
     </row>
     <row r="155" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="55"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="54" t="s">
+      <c r="D155" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E155" s="55"/>
-      <c r="F155" s="67" t="s">
+      <c r="E155" s="43"/>
+      <c r="F155" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="67"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="54" t="s">
+      <c r="A156" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="55"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="54" t="s">
+      <c r="D156" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="55"/>
-      <c r="F156" s="56" t="s">
+      <c r="E156" s="43"/>
+      <c r="F156" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G156" s="56"/>
+      <c r="G156" s="45"/>
       <c r="H156" s="24" t="s">
         <v>8</v>
       </c>
@@ -3185,16 +3336,16 @@
       <c r="J157" s="23"/>
     </row>
     <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="57" t="s">
+      <c r="A158" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="57"/>
-      <c r="C158" s="58" t="s">
+      <c r="B158" s="35"/>
+      <c r="C158" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D158" s="59"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
@@ -3213,21 +3364,21 @@
       <c r="J159" s="23"/>
     </row>
     <row r="160" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="61"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D160" s="60" t="s">
+      <c r="D160" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="61"/>
-      <c r="F160" s="62" t="s">
+      <c r="E160" s="39"/>
+      <c r="F160" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G160" s="63"/>
+      <c r="G160" s="41"/>
       <c r="H160" s="24" t="s">
         <v>13</v>
       </c>
@@ -3248,25 +3399,25 @@
       <c r="A162" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="71" t="s">
+      <c r="B162" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="71"/>
-      <c r="D162" s="71"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>1</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B163" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="45"/>
-      <c r="D163" s="45"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="45"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="46"/>
+      <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="23"/>
@@ -3284,15 +3435,15 @@
       <c r="A165" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B165" s="48" t="s">
+      <c r="B165" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48" t="s">
+      <c r="C165" s="59"/>
+      <c r="D165" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
       <c r="G165" s="23"/>
       <c r="H165" s="23"/>
       <c r="I165" s="23"/>
@@ -3302,15 +3453,15 @@
       <c r="A166" s="14">
         <v>1</v>
       </c>
-      <c r="B166" s="45" t="s">
+      <c r="B166" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C166" s="45"/>
-      <c r="D166" s="69">
+      <c r="C166" s="46"/>
+      <c r="D166" s="56">
         <v>39419</v>
       </c>
-      <c r="E166" s="45"/>
-      <c r="F166" s="45"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
       <c r="G166" s="23"/>
       <c r="H166" s="23"/>
       <c r="I166" s="23"/>
@@ -3318,21 +3469,21 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="16"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
     </row>
     <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="32"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>75</v>
       </c>
@@ -3348,60 +3499,60 @@
       <c r="C169" s="16"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="39" t="s">
+      <c r="C170" s="49"/>
+      <c r="D170" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="40"/>
-      <c r="F170" s="42" t="s">
+      <c r="E170" s="52"/>
+      <c r="F170" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G170" s="42"/>
-      <c r="H170" s="33" t="s">
+      <c r="G170" s="54"/>
+      <c r="H170" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I170" s="33"/>
-      <c r="J170" s="33"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
-      <c r="B171" s="72"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="41"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
     </row>
     <row r="172" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14">
         <v>1</v>
       </c>
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="70"/>
-      <c r="D172" s="45" t="s">
+      <c r="C172" s="55"/>
+      <c r="D172" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E172" s="45"/>
-      <c r="F172" s="45" t="s">
+      <c r="E172" s="46"/>
+      <c r="F172" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G172" s="45"/>
-      <c r="H172" s="45" t="s">
+      <c r="G172" s="46"/>
+      <c r="H172" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I172" s="45"/>
-      <c r="J172" s="45"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
     </row>
     <row r="173" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18"/>
@@ -3434,41 +3585,41 @@
       <c r="B176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="55"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="54" t="s">
+      <c r="D177" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E177" s="55"/>
-      <c r="F177" s="67" t="s">
+      <c r="E177" s="43"/>
+      <c r="F177" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="67"/>
-      <c r="H177" s="67"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="67"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="44"/>
+      <c r="I177" s="44"/>
+      <c r="J177" s="44"/>
     </row>
     <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="54" t="s">
+      <c r="A178" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="55"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="54" t="s">
+      <c r="D178" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="55"/>
-      <c r="F178" s="56" t="s">
+      <c r="E178" s="43"/>
+      <c r="F178" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G178" s="56"/>
+      <c r="G178" s="45"/>
       <c r="H178" s="24" t="s">
         <v>8</v>
       </c>
@@ -3490,16 +3641,16 @@
       <c r="J179" s="23"/>
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="57" t="s">
+      <c r="A180" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="57"/>
-      <c r="C180" s="58" t="s">
+      <c r="B180" s="35"/>
+      <c r="C180" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
       <c r="G180" s="23"/>
       <c r="H180" s="23"/>
       <c r="I180" s="23"/>
@@ -3518,21 +3669,21 @@
       <c r="J181" s="23"/>
     </row>
     <row r="182" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="60" t="s">
+      <c r="A182" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B182" s="61"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="60" t="s">
+      <c r="D182" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E182" s="61"/>
-      <c r="F182" s="62" t="s">
+      <c r="E182" s="39"/>
+      <c r="F182" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="63"/>
+      <c r="G182" s="41"/>
       <c r="H182" s="24" t="s">
         <v>13</v>
       </c>
@@ -3544,25 +3695,25 @@
       <c r="A183" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B183" s="71" t="s">
+      <c r="B183" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="71"/>
-      <c r="D183" s="71"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="71"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
         <v>1</v>
       </c>
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C184" s="45"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="45"/>
-      <c r="F184" s="45"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="46"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="23"/>
@@ -3580,15 +3731,15 @@
       <c r="A186" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48" t="s">
+      <c r="C186" s="59"/>
+      <c r="D186" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
       <c r="G186" s="23"/>
       <c r="H186" s="23"/>
       <c r="I186" s="23"/>
@@ -3598,15 +3749,15 @@
       <c r="A187" s="14">
         <v>1</v>
       </c>
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C187" s="45"/>
-      <c r="D187" s="69">
+      <c r="C187" s="46"/>
+      <c r="D187" s="56">
         <v>44195</v>
       </c>
-      <c r="E187" s="45"/>
-      <c r="F187" s="45"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="46"/>
       <c r="G187" s="23"/>
       <c r="H187" s="23"/>
       <c r="I187" s="23"/>
@@ -3614,21 +3765,21 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="16"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
     </row>
     <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B189" s="32"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>77</v>
       </c>
@@ -3644,60 +3795,60 @@
       <c r="C190" s="16"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="B191" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C191" s="34"/>
-      <c r="D191" s="39" t="s">
+      <c r="C191" s="49"/>
+      <c r="D191" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E191" s="40"/>
-      <c r="F191" s="42" t="s">
+      <c r="E191" s="52"/>
+      <c r="F191" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G191" s="42"/>
-      <c r="H191" s="33" t="s">
+      <c r="G191" s="54"/>
+      <c r="H191" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
+      <c r="I191" s="48"/>
+      <c r="J191" s="48"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
-      <c r="B192" s="72"/>
-      <c r="C192" s="72"/>
-      <c r="D192" s="41"/>
-      <c r="E192" s="41"/>
-      <c r="F192" s="42"/>
-      <c r="G192" s="42"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="53"/>
+      <c r="F192" s="54"/>
+      <c r="G192" s="54"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
+      <c r="J192" s="48"/>
     </row>
     <row r="193" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>1</v>
       </c>
-      <c r="B193" s="45" t="s">
+      <c r="B193" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C193" s="70"/>
-      <c r="D193" s="45" t="s">
+      <c r="C193" s="55"/>
+      <c r="D193" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E193" s="45"/>
-      <c r="F193" s="45" t="s">
+      <c r="E193" s="46"/>
+      <c r="F193" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G193" s="45"/>
-      <c r="H193" s="45" t="s">
+      <c r="G193" s="46"/>
+      <c r="H193" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I193" s="45"/>
-      <c r="J193" s="45"/>
+      <c r="I193" s="46"/>
+      <c r="J193" s="46"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
@@ -3718,41 +3869,41 @@
       <c r="B196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="54" t="s">
+      <c r="A197" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="55"/>
+      <c r="B197" s="43"/>
       <c r="C197" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D197" s="54" t="s">
+      <c r="D197" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E197" s="55"/>
-      <c r="F197" s="67" t="s">
+      <c r="E197" s="43"/>
+      <c r="F197" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G197" s="67"/>
-      <c r="H197" s="67"/>
-      <c r="I197" s="67"/>
-      <c r="J197" s="67"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="44"/>
+      <c r="I197" s="44"/>
+      <c r="J197" s="44"/>
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="54" t="s">
+      <c r="A198" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="55"/>
+      <c r="B198" s="43"/>
       <c r="C198" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="54" t="s">
+      <c r="D198" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E198" s="55"/>
-      <c r="F198" s="56" t="s">
+      <c r="E198" s="43"/>
+      <c r="F198" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G198" s="56"/>
+      <c r="G198" s="45"/>
       <c r="H198" s="24" t="s">
         <v>8</v>
       </c>
@@ -3774,16 +3925,16 @@
       <c r="J199" s="23"/>
     </row>
     <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="57" t="s">
+      <c r="A200" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B200" s="57"/>
-      <c r="C200" s="58" t="s">
+      <c r="B200" s="35"/>
+      <c r="C200" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D200" s="59"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="59"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37"/>
       <c r="G200" s="23"/>
       <c r="H200" s="23"/>
       <c r="I200" s="23"/>
@@ -3802,21 +3953,21 @@
       <c r="J201" s="23"/>
     </row>
     <row r="202" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="60" t="s">
+      <c r="A202" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B202" s="61"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D202" s="60" t="s">
+      <c r="D202" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E202" s="61"/>
-      <c r="F202" s="62" t="s">
+      <c r="E202" s="39"/>
+      <c r="F202" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G202" s="63"/>
+      <c r="G202" s="41"/>
       <c r="H202" s="24" t="s">
         <v>13</v>
       </c>
@@ -3837,25 +3988,25 @@
       <c r="A204" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B204" s="71" t="s">
+      <c r="B204" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="71"/>
-      <c r="D204" s="71"/>
-      <c r="E204" s="71"/>
-      <c r="F204" s="71"/>
+      <c r="C204" s="58"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>1</v>
       </c>
-      <c r="B205" s="45" t="s">
+      <c r="B205" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C205" s="45"/>
-      <c r="D205" s="45"/>
-      <c r="E205" s="45"/>
-      <c r="F205" s="45"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="46"/>
+      <c r="F205" s="46"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="23"/>
@@ -3873,15 +4024,15 @@
       <c r="A207" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="B207" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48" t="s">
+      <c r="C207" s="59"/>
+      <c r="D207" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
+      <c r="E207" s="59"/>
+      <c r="F207" s="59"/>
       <c r="G207" s="23"/>
       <c r="H207" s="23"/>
       <c r="I207" s="23"/>
@@ -3891,15 +4042,15 @@
       <c r="A208" s="14">
         <v>1</v>
       </c>
-      <c r="B208" s="45" t="s">
+      <c r="B208" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C208" s="45"/>
-      <c r="D208" s="69" t="s">
+      <c r="C208" s="46"/>
+      <c r="D208" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="45"/>
-      <c r="F208" s="45"/>
+      <c r="E208" s="46"/>
+      <c r="F208" s="46"/>
       <c r="G208" s="23"/>
       <c r="H208" s="23"/>
       <c r="I208" s="23"/>
@@ -3907,21 +4058,21 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="16"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="31"/>
-      <c r="F209" s="31"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
       <c r="J209" s="21"/>
     </row>
     <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B210" s="32"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>78</v>
       </c>
@@ -3937,60 +4088,60 @@
       <c r="C211" s="16"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="33" t="s">
+      <c r="A212" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B212" s="33" t="s">
+      <c r="B212" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C212" s="34"/>
-      <c r="D212" s="39" t="s">
+      <c r="C212" s="49"/>
+      <c r="D212" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E212" s="40"/>
-      <c r="F212" s="42" t="s">
+      <c r="E212" s="52"/>
+      <c r="F212" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G212" s="42"/>
-      <c r="H212" s="33" t="s">
+      <c r="G212" s="54"/>
+      <c r="H212" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I212" s="33"/>
-      <c r="J212" s="33"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="48"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="34"/>
-      <c r="B213" s="72"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="41"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="33"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="48"/>
     </row>
     <row r="214" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>1</v>
       </c>
-      <c r="B214" s="45" t="s">
+      <c r="B214" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C214" s="70"/>
-      <c r="D214" s="45" t="s">
+      <c r="C214" s="55"/>
+      <c r="D214" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E214" s="45"/>
-      <c r="F214" s="45" t="s">
+      <c r="E214" s="46"/>
+      <c r="F214" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G214" s="45"/>
-      <c r="H214" s="45" t="s">
+      <c r="G214" s="46"/>
+      <c r="H214" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I214" s="45"/>
-      <c r="J214" s="45"/>
+      <c r="I214" s="46"/>
+      <c r="J214" s="46"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
@@ -3999,41 +4150,41 @@
       <c r="B215" s="6"/>
     </row>
     <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="54" t="s">
+      <c r="A216" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B216" s="55"/>
+      <c r="B216" s="43"/>
       <c r="C216" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D216" s="54" t="s">
+      <c r="D216" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E216" s="55"/>
-      <c r="F216" s="67" t="s">
+      <c r="E216" s="43"/>
+      <c r="F216" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="67"/>
+      <c r="G216" s="44"/>
+      <c r="H216" s="44"/>
+      <c r="I216" s="44"/>
+      <c r="J216" s="44"/>
     </row>
     <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="54" t="s">
+      <c r="A217" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="55"/>
+      <c r="B217" s="43"/>
       <c r="C217" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="54" t="s">
+      <c r="D217" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="55"/>
-      <c r="F217" s="56" t="s">
+      <c r="E217" s="43"/>
+      <c r="F217" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G217" s="56"/>
+      <c r="G217" s="45"/>
       <c r="H217" s="24" t="s">
         <v>8</v>
       </c>
@@ -4055,16 +4206,16 @@
       <c r="J218" s="23"/>
     </row>
     <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="57" t="s">
+      <c r="A219" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B219" s="57"/>
-      <c r="C219" s="58" t="s">
+      <c r="B219" s="35"/>
+      <c r="C219" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="37"/>
+      <c r="F219" s="37"/>
       <c r="G219" s="23"/>
       <c r="H219" s="23"/>
       <c r="I219" s="23"/>
@@ -4083,21 +4234,21 @@
       <c r="J220" s="23"/>
     </row>
     <row r="221" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="60" t="s">
+      <c r="A221" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B221" s="61"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="60" t="s">
+      <c r="D221" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E221" s="61"/>
-      <c r="F221" s="62" t="s">
+      <c r="E221" s="39"/>
+      <c r="F221" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G221" s="63"/>
+      <c r="G221" s="41"/>
       <c r="H221" s="24" t="s">
         <v>13</v>
       </c>
@@ -4118,25 +4269,25 @@
       <c r="A223" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B223" s="71" t="s">
+      <c r="B223" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="71"/>
-      <c r="D223" s="71"/>
-      <c r="E223" s="71"/>
-      <c r="F223" s="71"/>
+      <c r="C223" s="58"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="58"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>1</v>
       </c>
-      <c r="B224" s="45" t="s">
+      <c r="B224" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C224" s="45"/>
-      <c r="D224" s="45"/>
-      <c r="E224" s="45"/>
-      <c r="F224" s="45"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="46"/>
+      <c r="E224" s="46"/>
+      <c r="F224" s="46"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="23"/>
@@ -4154,15 +4305,15 @@
       <c r="A226" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B226" s="48" t="s">
+      <c r="B226" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48" t="s">
+      <c r="C226" s="59"/>
+      <c r="D226" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
       <c r="G226" s="23"/>
       <c r="H226" s="23"/>
       <c r="I226" s="23"/>
@@ -4172,15 +4323,15 @@
       <c r="A227" s="14">
         <v>1</v>
       </c>
-      <c r="B227" s="45" t="s">
+      <c r="B227" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C227" s="45"/>
-      <c r="D227" s="69" t="s">
+      <c r="C227" s="46"/>
+      <c r="D227" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E227" s="45"/>
-      <c r="F227" s="45"/>
+      <c r="E227" s="46"/>
+      <c r="F227" s="46"/>
       <c r="G227" s="23"/>
       <c r="H227" s="23"/>
       <c r="I227" s="23"/>
@@ -4188,21 +4339,21 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="16"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="31"/>
-      <c r="E228" s="31"/>
-      <c r="F228" s="31"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="57"/>
       <c r="G228" s="21"/>
       <c r="H228" s="21"/>
       <c r="I228" s="21"/>
       <c r="J228" s="21"/>
     </row>
     <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="32" t="s">
+      <c r="A229" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="32"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>81</v>
       </c>
@@ -4218,60 +4369,60 @@
       <c r="C230" s="16"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="33" t="s">
+      <c r="A231" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B231" s="33" t="s">
+      <c r="B231" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C231" s="34"/>
-      <c r="D231" s="39" t="s">
+      <c r="C231" s="49"/>
+      <c r="D231" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E231" s="40"/>
-      <c r="F231" s="42" t="s">
+      <c r="E231" s="52"/>
+      <c r="F231" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G231" s="42"/>
-      <c r="H231" s="33" t="s">
+      <c r="G231" s="54"/>
+      <c r="H231" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I231" s="33"/>
-      <c r="J231" s="33"/>
+      <c r="I231" s="48"/>
+      <c r="J231" s="48"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="34"/>
-      <c r="B232" s="72"/>
-      <c r="C232" s="72"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="41"/>
-      <c r="F232" s="42"/>
-      <c r="G232" s="42"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="33"/>
+      <c r="A232" s="49"/>
+      <c r="B232" s="50"/>
+      <c r="C232" s="50"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="48"/>
+      <c r="I232" s="48"/>
+      <c r="J232" s="48"/>
     </row>
     <row r="233" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14">
         <v>1</v>
       </c>
-      <c r="B233" s="45" t="s">
+      <c r="B233" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C233" s="70"/>
-      <c r="D233" s="45" t="s">
+      <c r="C233" s="55"/>
+      <c r="D233" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E233" s="45"/>
-      <c r="F233" s="45" t="s">
+      <c r="E233" s="46"/>
+      <c r="F233" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G233" s="45"/>
-      <c r="H233" s="45" t="s">
+      <c r="G233" s="46"/>
+      <c r="H233" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I233" s="45"/>
-      <c r="J233" s="45"/>
+      <c r="I233" s="46"/>
+      <c r="J233" s="46"/>
     </row>
     <row r="236" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
@@ -4288,41 +4439,41 @@
       <c r="B237" s="6"/>
     </row>
     <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A238" s="54" t="s">
+      <c r="A238" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="54"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D238" s="54" t="s">
+      <c r="D238" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E238" s="55"/>
-      <c r="F238" s="67" t="s">
+      <c r="E238" s="43"/>
+      <c r="F238" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G238" s="67"/>
-      <c r="H238" s="67"/>
-      <c r="I238" s="67"/>
-      <c r="J238" s="67"/>
+      <c r="G238" s="44"/>
+      <c r="H238" s="44"/>
+      <c r="I238" s="44"/>
+      <c r="J238" s="44"/>
     </row>
     <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A239" s="54" t="s">
+      <c r="A239" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="54"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D239" s="54" t="s">
+      <c r="D239" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="55"/>
-      <c r="F239" s="56" t="s">
+      <c r="E239" s="43"/>
+      <c r="F239" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G239" s="56"/>
+      <c r="G239" s="45"/>
       <c r="H239" s="28" t="s">
         <v>8</v>
       </c>
@@ -4344,16 +4495,16 @@
       <c r="J240" s="29"/>
     </row>
     <row r="241" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="57" t="s">
+      <c r="A241" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="57"/>
-      <c r="C241" s="58" t="s">
+      <c r="B241" s="35"/>
+      <c r="C241" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D241" s="59"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="59"/>
+      <c r="D241" s="37"/>
+      <c r="E241" s="37"/>
+      <c r="F241" s="37"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
@@ -4372,21 +4523,21 @@
       <c r="J242" s="29"/>
     </row>
     <row r="243" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A243" s="60" t="s">
+      <c r="A243" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="60"/>
+      <c r="B243" s="38"/>
       <c r="C243" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D243" s="60" t="s">
+      <c r="D243" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E243" s="61"/>
-      <c r="F243" s="62" t="s">
+      <c r="E243" s="39"/>
+      <c r="F243" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G243" s="63"/>
+      <c r="G243" s="41"/>
       <c r="H243" s="28" t="s">
         <v>13</v>
       </c>
@@ -4407,25 +4558,25 @@
       <c r="A245" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B245" s="64" t="s">
+      <c r="B245" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="65"/>
-      <c r="D245" s="65"/>
-      <c r="E245" s="65"/>
-      <c r="F245" s="66"/>
+      <c r="C245" s="61"/>
+      <c r="D245" s="61"/>
+      <c r="E245" s="61"/>
+      <c r="F245" s="62"/>
     </row>
     <row r="246" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14">
         <v>1</v>
       </c>
-      <c r="B246" s="43" t="s">
+      <c r="B246" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C246" s="52"/>
-      <c r="D246" s="52"/>
-      <c r="E246" s="52"/>
-      <c r="F246" s="44"/>
+      <c r="C246" s="64"/>
+      <c r="D246" s="64"/>
+      <c r="E246" s="64"/>
+      <c r="F246" s="65"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
@@ -4443,15 +4594,15 @@
       <c r="A248" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B248" s="46" t="s">
+      <c r="B248" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C248" s="47"/>
-      <c r="D248" s="48" t="s">
+      <c r="C248" s="67"/>
+      <c r="D248" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="48"/>
-      <c r="F248" s="48"/>
+      <c r="E248" s="59"/>
+      <c r="F248" s="59"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
       <c r="I248" s="29"/>
@@ -4461,15 +4612,15 @@
       <c r="A249" s="14">
         <v>1</v>
       </c>
-      <c r="B249" s="43" t="s">
+      <c r="B249" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C249" s="44"/>
-      <c r="D249" s="69" t="b">
+      <c r="C249" s="65"/>
+      <c r="D249" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="E249" s="45"/>
-      <c r="F249" s="45"/>
+      <c r="E249" s="46"/>
+      <c r="F249" s="46"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
@@ -4479,10 +4630,10 @@
       <c r="A250" s="14">
         <v>2</v>
       </c>
-      <c r="B250" s="49" t="s">
+      <c r="B250" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C250" s="50"/>
+      <c r="C250" s="75"/>
       <c r="D250" s="68" t="b">
         <v>0</v>
       </c>
@@ -4495,21 +4646,21 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="16"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="30"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="31"/>
-      <c r="F251" s="31"/>
+      <c r="B251" s="69"/>
+      <c r="C251" s="69"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="57"/>
       <c r="G251" s="26"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
       <c r="J251" s="26"/>
     </row>
     <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A252" s="32" t="s">
+      <c r="A252" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B252" s="32"/>
+      <c r="B252" s="47"/>
       <c r="C252" s="26"/>
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
@@ -4523,60 +4674,60 @@
       <c r="C253" s="16"/>
     </row>
     <row r="254" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="33" t="s">
+      <c r="A254" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B254" s="35" t="s">
+      <c r="B254" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C254" s="36"/>
-      <c r="D254" s="39" t="s">
+      <c r="C254" s="71"/>
+      <c r="D254" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E254" s="40"/>
-      <c r="F254" s="42" t="s">
+      <c r="E254" s="52"/>
+      <c r="F254" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G254" s="42"/>
-      <c r="H254" s="33" t="s">
+      <c r="G254" s="54"/>
+      <c r="H254" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I254" s="33"/>
-      <c r="J254" s="33"/>
+      <c r="I254" s="48"/>
+      <c r="J254" s="48"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="34"/>
-      <c r="B255" s="37"/>
-      <c r="C255" s="38"/>
-      <c r="D255" s="41"/>
-      <c r="E255" s="41"/>
-      <c r="F255" s="42"/>
-      <c r="G255" s="42"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
+      <c r="A255" s="49"/>
+      <c r="B255" s="72"/>
+      <c r="C255" s="73"/>
+      <c r="D255" s="53"/>
+      <c r="E255" s="53"/>
+      <c r="F255" s="54"/>
+      <c r="G255" s="54"/>
+      <c r="H255" s="48"/>
+      <c r="I255" s="48"/>
+      <c r="J255" s="48"/>
     </row>
     <row r="256" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14">
         <v>1</v>
       </c>
-      <c r="B256" s="43" t="s">
+      <c r="B256" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C256" s="44"/>
-      <c r="D256" s="45" t="b">
+      <c r="C256" s="65"/>
+      <c r="D256" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="E256" s="45"/>
-      <c r="F256" s="45" t="s">
+      <c r="E256" s="46"/>
+      <c r="F256" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G256" s="45"/>
-      <c r="H256" s="45" t="s">
+      <c r="G256" s="46"/>
+      <c r="H256" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I256" s="45"/>
-      <c r="J256" s="45"/>
+      <c r="I256" s="46"/>
+      <c r="J256" s="46"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
@@ -4618,15 +4769,15 @@
       <c r="A260" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B260" s="46" t="s">
+      <c r="B260" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C260" s="47"/>
-      <c r="D260" s="48" t="s">
+      <c r="C260" s="67"/>
+      <c r="D260" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E260" s="48"/>
-      <c r="F260" s="48"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
@@ -4636,10 +4787,10 @@
       <c r="A261" s="14">
         <v>2</v>
       </c>
-      <c r="B261" s="49" t="s">
+      <c r="B261" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C261" s="50"/>
+      <c r="C261" s="75"/>
       <c r="D261" s="68" t="b">
         <v>0</v>
       </c>
@@ -4652,21 +4803,21 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="16"/>
-      <c r="B262" s="30"/>
-      <c r="C262" s="30"/>
-      <c r="D262" s="31"/>
-      <c r="E262" s="31"/>
-      <c r="F262" s="31"/>
+      <c r="B262" s="69"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
       <c r="I262" s="26"/>
       <c r="J262" s="26"/>
     </row>
     <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A263" s="32" t="s">
+      <c r="A263" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B263" s="32"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="26"/>
       <c r="D263" s="29"/>
       <c r="E263" s="29"/>
@@ -4680,60 +4831,60 @@
       <c r="C264" s="16"/>
     </row>
     <row r="265" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="33" t="s">
+      <c r="A265" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B265" s="35" t="s">
+      <c r="B265" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C265" s="36"/>
-      <c r="D265" s="39" t="s">
+      <c r="C265" s="71"/>
+      <c r="D265" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E265" s="40"/>
-      <c r="F265" s="42" t="s">
+      <c r="E265" s="52"/>
+      <c r="F265" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G265" s="42"/>
-      <c r="H265" s="33" t="s">
+      <c r="G265" s="54"/>
+      <c r="H265" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I265" s="33"/>
-      <c r="J265" s="33"/>
+      <c r="I265" s="48"/>
+      <c r="J265" s="48"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A266" s="34"/>
-      <c r="B266" s="37"/>
-      <c r="C266" s="38"/>
-      <c r="D266" s="41"/>
-      <c r="E266" s="41"/>
-      <c r="F266" s="42"/>
-      <c r="G266" s="42"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="33"/>
+      <c r="A266" s="49"/>
+      <c r="B266" s="72"/>
+      <c r="C266" s="73"/>
+      <c r="D266" s="53"/>
+      <c r="E266" s="53"/>
+      <c r="F266" s="54"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="48"/>
+      <c r="I266" s="48"/>
+      <c r="J266" s="48"/>
     </row>
     <row r="267" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14">
         <v>1</v>
       </c>
-      <c r="B267" s="43" t="s">
+      <c r="B267" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C267" s="44"/>
-      <c r="D267" s="45" t="b">
+      <c r="C267" s="65"/>
+      <c r="D267" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="E267" s="45"/>
-      <c r="F267" s="45" t="s">
+      <c r="E267" s="46"/>
+      <c r="F267" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G267" s="45"/>
-      <c r="H267" s="45" t="s">
+      <c r="G267" s="46"/>
+      <c r="H267" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I267" s="45"/>
-      <c r="J267" s="45"/>
+      <c r="I267" s="46"/>
+      <c r="J267" s="46"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
@@ -4762,41 +4913,41 @@
       <c r="B273" s="6"/>
     </row>
     <row r="274" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A274" s="54" t="s">
+      <c r="A274" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B274" s="54"/>
+      <c r="B274" s="42"/>
       <c r="C274" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D274" s="54" t="s">
+      <c r="D274" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E274" s="55"/>
-      <c r="F274" s="67" t="s">
+      <c r="E274" s="43"/>
+      <c r="F274" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G274" s="67"/>
-      <c r="H274" s="67"/>
-      <c r="I274" s="67"/>
-      <c r="J274" s="67"/>
+      <c r="G274" s="44"/>
+      <c r="H274" s="44"/>
+      <c r="I274" s="44"/>
+      <c r="J274" s="44"/>
     </row>
     <row r="275" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A275" s="54" t="s">
+      <c r="A275" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B275" s="54"/>
+      <c r="B275" s="42"/>
       <c r="C275" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D275" s="54" t="s">
+      <c r="D275" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="55"/>
-      <c r="F275" s="56" t="s">
+      <c r="E275" s="43"/>
+      <c r="F275" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G275" s="56"/>
+      <c r="G275" s="45"/>
       <c r="H275" s="28" t="s">
         <v>8</v>
       </c>
@@ -4818,16 +4969,16 @@
       <c r="J276" s="29"/>
     </row>
     <row r="277" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A277" s="57" t="s">
+      <c r="A277" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B277" s="57"/>
-      <c r="C277" s="58" t="s">
+      <c r="B277" s="35"/>
+      <c r="C277" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D277" s="59"/>
-      <c r="E277" s="59"/>
-      <c r="F277" s="59"/>
+      <c r="D277" s="37"/>
+      <c r="E277" s="37"/>
+      <c r="F277" s="37"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
       <c r="I277" s="29"/>
@@ -4846,21 +4997,21 @@
       <c r="J278" s="29"/>
     </row>
     <row r="279" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A279" s="60" t="s">
+      <c r="A279" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B279" s="60"/>
+      <c r="B279" s="38"/>
       <c r="C279" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D279" s="60" t="s">
+      <c r="D279" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E279" s="61"/>
-      <c r="F279" s="62" t="s">
+      <c r="E279" s="39"/>
+      <c r="F279" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G279" s="63"/>
+      <c r="G279" s="41"/>
       <c r="H279" s="28" t="s">
         <v>13</v>
       </c>
@@ -4881,25 +5032,25 @@
       <c r="A281" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B281" s="64" t="s">
+      <c r="B281" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="65"/>
-      <c r="D281" s="65"/>
-      <c r="E281" s="65"/>
-      <c r="F281" s="66"/>
+      <c r="C281" s="61"/>
+      <c r="D281" s="61"/>
+      <c r="E281" s="61"/>
+      <c r="F281" s="62"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="14">
         <v>1</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C282" s="52"/>
-      <c r="D282" s="52"/>
-      <c r="E282" s="52"/>
-      <c r="F282" s="44"/>
+      <c r="C282" s="64"/>
+      <c r="D282" s="64"/>
+      <c r="E282" s="64"/>
+      <c r="F282" s="65"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
@@ -4917,15 +5068,15 @@
       <c r="A284" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C284" s="47"/>
-      <c r="D284" s="48" t="s">
+      <c r="C284" s="67"/>
+      <c r="D284" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
+      <c r="E284" s="59"/>
+      <c r="F284" s="59"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
       <c r="I284" s="29"/>
@@ -4935,15 +5086,15 @@
       <c r="A285" s="14">
         <v>1</v>
       </c>
-      <c r="B285" s="43" t="s">
+      <c r="B285" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C285" s="44"/>
-      <c r="D285" s="53">
+      <c r="C285" s="65"/>
+      <c r="D285" s="76">
         <v>15</v>
       </c>
-      <c r="E285" s="53"/>
-      <c r="F285" s="53"/>
+      <c r="E285" s="76"/>
+      <c r="F285" s="76"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
       <c r="I285" s="29"/>
@@ -4951,21 +5102,21 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="16"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="30"/>
-      <c r="D286" s="31"/>
-      <c r="E286" s="31"/>
-      <c r="F286" s="31"/>
+      <c r="B286" s="69"/>
+      <c r="C286" s="69"/>
+      <c r="D286" s="57"/>
+      <c r="E286" s="57"/>
+      <c r="F286" s="57"/>
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
       <c r="I286" s="26"/>
       <c r="J286" s="26"/>
     </row>
     <row r="287" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B287" s="32"/>
+      <c r="B287" s="47"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29"/>
       <c r="E287" s="29"/>
@@ -4979,60 +5130,60 @@
       <c r="C288" s="16"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" s="33" t="s">
+      <c r="A289" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B289" s="35" t="s">
+      <c r="B289" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C289" s="36"/>
-      <c r="D289" s="39" t="s">
+      <c r="C289" s="71"/>
+      <c r="D289" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E289" s="40"/>
-      <c r="F289" s="42" t="s">
+      <c r="E289" s="52"/>
+      <c r="F289" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G289" s="42"/>
-      <c r="H289" s="33" t="s">
+      <c r="G289" s="54"/>
+      <c r="H289" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I289" s="33"/>
-      <c r="J289" s="33"/>
+      <c r="I289" s="48"/>
+      <c r="J289" s="48"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A290" s="34"/>
-      <c r="B290" s="37"/>
-      <c r="C290" s="38"/>
-      <c r="D290" s="41"/>
-      <c r="E290" s="41"/>
-      <c r="F290" s="42"/>
-      <c r="G290" s="42"/>
-      <c r="H290" s="33"/>
-      <c r="I290" s="33"/>
-      <c r="J290" s="33"/>
+      <c r="A290" s="49"/>
+      <c r="B290" s="72"/>
+      <c r="C290" s="73"/>
+      <c r="D290" s="53"/>
+      <c r="E290" s="53"/>
+      <c r="F290" s="54"/>
+      <c r="G290" s="54"/>
+      <c r="H290" s="48"/>
+      <c r="I290" s="48"/>
+      <c r="J290" s="48"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="14">
         <v>1</v>
       </c>
-      <c r="B291" s="43" t="s">
+      <c r="B291" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C291" s="44"/>
-      <c r="D291" s="45" t="b">
+      <c r="C291" s="65"/>
+      <c r="D291" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="E291" s="45"/>
-      <c r="F291" s="45" t="s">
+      <c r="E291" s="46"/>
+      <c r="F291" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="45"/>
-      <c r="H291" s="45" t="s">
+      <c r="G291" s="46"/>
+      <c r="H291" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I291" s="45"/>
-      <c r="J291" s="45"/>
+      <c r="I291" s="46"/>
+      <c r="J291" s="46"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
@@ -5074,15 +5225,15 @@
       <c r="A295" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C295" s="47"/>
-      <c r="D295" s="48" t="s">
+      <c r="C295" s="67"/>
+      <c r="D295" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E295" s="48"/>
-      <c r="F295" s="48"/>
+      <c r="E295" s="59"/>
+      <c r="F295" s="59"/>
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
       <c r="I295" s="29"/>
@@ -5092,15 +5243,15 @@
       <c r="A296" s="14">
         <v>2</v>
       </c>
-      <c r="B296" s="49" t="s">
+      <c r="B296" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C296" s="50"/>
-      <c r="D296" s="51">
+      <c r="C296" s="75"/>
+      <c r="D296" s="77">
         <v>0</v>
       </c>
-      <c r="E296" s="51"/>
-      <c r="F296" s="51"/>
+      <c r="E296" s="77"/>
+      <c r="F296" s="77"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
       <c r="I296" s="29"/>
@@ -5108,21 +5259,21 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
-      <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
-      <c r="D297" s="31"/>
-      <c r="E297" s="31"/>
-      <c r="F297" s="31"/>
+      <c r="B297" s="69"/>
+      <c r="C297" s="69"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="57"/>
+      <c r="F297" s="57"/>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
       <c r="I297" s="26"/>
       <c r="J297" s="26"/>
     </row>
     <row r="298" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A298" s="32" t="s">
+      <c r="A298" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B298" s="32"/>
+      <c r="B298" s="47"/>
       <c r="C298" s="26"/>
       <c r="D298" s="29"/>
       <c r="E298" s="29"/>
@@ -5136,60 +5287,60 @@
       <c r="C299" s="16"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A300" s="33" t="s">
+      <c r="A300" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B300" s="35" t="s">
+      <c r="B300" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C300" s="36"/>
-      <c r="D300" s="39" t="s">
+      <c r="C300" s="71"/>
+      <c r="D300" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E300" s="40"/>
-      <c r="F300" s="42" t="s">
+      <c r="E300" s="52"/>
+      <c r="F300" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G300" s="42"/>
-      <c r="H300" s="33" t="s">
+      <c r="G300" s="54"/>
+      <c r="H300" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I300" s="33"/>
-      <c r="J300" s="33"/>
+      <c r="I300" s="48"/>
+      <c r="J300" s="48"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A301" s="34"/>
-      <c r="B301" s="37"/>
-      <c r="C301" s="38"/>
-      <c r="D301" s="41"/>
-      <c r="E301" s="41"/>
-      <c r="F301" s="42"/>
-      <c r="G301" s="42"/>
-      <c r="H301" s="33"/>
-      <c r="I301" s="33"/>
-      <c r="J301" s="33"/>
+      <c r="A301" s="49"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="73"/>
+      <c r="D301" s="53"/>
+      <c r="E301" s="53"/>
+      <c r="F301" s="54"/>
+      <c r="G301" s="54"/>
+      <c r="H301" s="48"/>
+      <c r="I301" s="48"/>
+      <c r="J301" s="48"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="14">
         <v>1</v>
       </c>
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C302" s="44"/>
-      <c r="D302" s="45" t="b">
+      <c r="C302" s="65"/>
+      <c r="D302" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="E302" s="45"/>
-      <c r="F302" s="45" t="s">
+      <c r="E302" s="46"/>
+      <c r="F302" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G302" s="45"/>
-      <c r="H302" s="45" t="s">
+      <c r="G302" s="46"/>
+      <c r="H302" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I302" s="45"/>
-      <c r="J302" s="45"/>
+      <c r="I302" s="46"/>
+      <c r="J302" s="46"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="18"/>
@@ -5219,15 +5370,15 @@
       <c r="A305" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C305" s="47"/>
-      <c r="D305" s="48" t="s">
+      <c r="C305" s="67"/>
+      <c r="D305" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E305" s="48"/>
-      <c r="F305" s="48"/>
+      <c r="E305" s="59"/>
+      <c r="F305" s="59"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
       <c r="I305" s="29"/>
@@ -5237,15 +5388,15 @@
       <c r="A306" s="14">
         <v>2</v>
       </c>
-      <c r="B306" s="49" t="s">
+      <c r="B306" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C306" s="50"/>
-      <c r="D306" s="51" t="s">
+      <c r="C306" s="75"/>
+      <c r="D306" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="E306" s="51"/>
-      <c r="F306" s="51"/>
+      <c r="E306" s="77"/>
+      <c r="F306" s="77"/>
       <c r="G306" s="29"/>
       <c r="H306" s="29"/>
       <c r="I306" s="29"/>
@@ -5253,21 +5404,21 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="16"/>
-      <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
-      <c r="D307" s="31"/>
-      <c r="E307" s="31"/>
-      <c r="F307" s="31"/>
+      <c r="B307" s="69"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="57"/>
+      <c r="E307" s="57"/>
+      <c r="F307" s="57"/>
       <c r="G307" s="26"/>
       <c r="H307" s="26"/>
       <c r="I307" s="26"/>
       <c r="J307" s="26"/>
     </row>
     <row r="308" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A308" s="32" t="s">
+      <c r="A308" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B308" s="32"/>
+      <c r="B308" s="47"/>
       <c r="C308" s="26"/>
       <c r="D308" s="29"/>
       <c r="E308" s="29"/>
@@ -5281,129 +5432,2290 @@
       <c r="C309" s="16"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A310" s="33" t="s">
+      <c r="A310" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B310" s="35" t="s">
+      <c r="B310" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C310" s="36"/>
-      <c r="D310" s="39" t="s">
+      <c r="C310" s="71"/>
+      <c r="D310" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E310" s="40"/>
-      <c r="F310" s="42" t="s">
+      <c r="E310" s="52"/>
+      <c r="F310" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="42"/>
-      <c r="H310" s="33" t="s">
+      <c r="G310" s="54"/>
+      <c r="H310" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I310" s="33"/>
-      <c r="J310" s="33"/>
+      <c r="I310" s="48"/>
+      <c r="J310" s="48"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311" s="34"/>
-      <c r="B311" s="37"/>
-      <c r="C311" s="38"/>
-      <c r="D311" s="41"/>
-      <c r="E311" s="41"/>
-      <c r="F311" s="42"/>
-      <c r="G311" s="42"/>
-      <c r="H311" s="33"/>
-      <c r="I311" s="33"/>
-      <c r="J311" s="33"/>
+      <c r="A311" s="49"/>
+      <c r="B311" s="72"/>
+      <c r="C311" s="73"/>
+      <c r="D311" s="53"/>
+      <c r="E311" s="53"/>
+      <c r="F311" s="54"/>
+      <c r="G311" s="54"/>
+      <c r="H311" s="48"/>
+      <c r="I311" s="48"/>
+      <c r="J311" s="48"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="14">
         <v>1</v>
       </c>
-      <c r="B312" s="43" t="s">
+      <c r="B312" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C312" s="44"/>
-      <c r="D312" s="45" t="b">
+      <c r="C312" s="65"/>
+      <c r="D312" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="E312" s="45"/>
-      <c r="F312" s="45" t="s">
+      <c r="E312" s="46"/>
+      <c r="F312" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G312" s="45"/>
-      <c r="H312" s="45" t="s">
+      <c r="G312" s="46"/>
+      <c r="H312" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I312" s="45"/>
-      <c r="J312" s="45"/>
+      <c r="I312" s="46"/>
+      <c r="J312" s="46"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" s="18"/>
+      <c r="B313" s="33"/>
+      <c r="C313" s="33"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="33"/>
+      <c r="G313" s="33"/>
+      <c r="H313" s="33"/>
+      <c r="I313" s="33"/>
+      <c r="J313" s="33"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" s="18"/>
+      <c r="B314" s="33"/>
+      <c r="C314" s="33"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="33"/>
+      <c r="G314" s="33"/>
+      <c r="H314" s="33"/>
+      <c r="I314" s="33"/>
+      <c r="J314" s="33"/>
+    </row>
+    <row r="316" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B317" s="6"/>
+    </row>
+    <row r="318" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A318" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B318" s="43"/>
+      <c r="C318" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D318" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" s="43"/>
+      <c r="F318" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G318" s="44"/>
+      <c r="H318" s="44"/>
+      <c r="I318" s="44"/>
+      <c r="J318" s="33"/>
+    </row>
+    <row r="319" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A319" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="43"/>
+      <c r="C319" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D319" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="43"/>
+      <c r="F319" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G319" s="45"/>
+      <c r="H319" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I319" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J319" s="9"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" s="33"/>
+      <c r="B320" s="33"/>
+      <c r="C320" s="33"/>
+      <c r="D320" s="33"/>
+      <c r="E320" s="33"/>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33"/>
+      <c r="H320" s="33"/>
+      <c r="I320" s="33"/>
+      <c r="J320" s="33"/>
+    </row>
+    <row r="321" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A321" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="35"/>
+      <c r="C321" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D321" s="37"/>
+      <c r="E321" s="37"/>
+      <c r="F321" s="37"/>
+      <c r="G321" s="33"/>
+      <c r="H321" s="33"/>
+      <c r="I321" s="33"/>
+      <c r="J321" s="33"/>
+    </row>
+    <row r="322" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="33"/>
+      <c r="H322" s="33"/>
+      <c r="I322" s="33"/>
+      <c r="J322" s="33"/>
+    </row>
+    <row r="323" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A323" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" s="39"/>
+      <c r="C323" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D323" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" s="39"/>
+      <c r="F323" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G323" s="41"/>
+      <c r="H323" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I323" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+      <c r="C324" s="12"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="33"/>
+      <c r="I324" s="33"/>
+      <c r="J324" s="33"/>
+    </row>
+    <row r="325" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A325" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C325" s="58"/>
+      <c r="D325" s="58"/>
+      <c r="E325" s="58"/>
+      <c r="F325" s="58"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326" s="14">
+        <v>1</v>
+      </c>
+      <c r="B326" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C326" s="46"/>
+      <c r="D326" s="46"/>
+      <c r="E326" s="46"/>
+      <c r="F326" s="46"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327" s="33"/>
+      <c r="B327" s="33"/>
+      <c r="C327" s="33"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="33"/>
+      <c r="F327" s="33"/>
+      <c r="G327" s="33"/>
+      <c r="H327" s="33"/>
+      <c r="I327" s="33"/>
+      <c r="J327" s="33"/>
+    </row>
+    <row r="328" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A328" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328" s="59"/>
+      <c r="D328" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E328" s="59"/>
+      <c r="F328" s="59"/>
+      <c r="G328" s="33"/>
+      <c r="H328" s="33"/>
+      <c r="I328" s="33"/>
+      <c r="J328" s="33"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329" s="14">
+        <v>1</v>
+      </c>
+      <c r="B329" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C329" s="46"/>
+      <c r="D329" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329" s="46"/>
+      <c r="F329" s="46"/>
+      <c r="G329" s="33"/>
+      <c r="H329" s="33"/>
+      <c r="I329" s="33"/>
+      <c r="J329" s="33"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" s="16"/>
+      <c r="B330" s="57"/>
+      <c r="C330" s="57"/>
+      <c r="D330" s="57"/>
+      <c r="E330" s="57"/>
+      <c r="F330" s="57"/>
+      <c r="G330" s="30"/>
+      <c r="H330" s="30"/>
+      <c r="I330" s="30"/>
+      <c r="J330" s="30"/>
+    </row>
+    <row r="331" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A331" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B331" s="47"/>
+      <c r="C331" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D331" s="33"/>
+      <c r="E331" s="33"/>
+      <c r="F331" s="33"/>
+      <c r="G331" s="33"/>
+      <c r="H331" s="33"/>
+      <c r="I331" s="33"/>
+      <c r="J331" s="33"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C332" s="16"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B333" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C333" s="49"/>
+      <c r="D333" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" s="52"/>
+      <c r="F333" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G333" s="54"/>
+      <c r="H333" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I333" s="48"/>
+      <c r="J333" s="48"/>
+    </row>
+    <row r="334" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A334" s="49"/>
+      <c r="B334" s="50"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="53"/>
+      <c r="E334" s="53"/>
+      <c r="F334" s="54"/>
+      <c r="G334" s="54"/>
+      <c r="H334" s="48"/>
+      <c r="I334" s="48"/>
+      <c r="J334" s="48"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335" s="14">
+        <v>1</v>
+      </c>
+      <c r="B335" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C335" s="55"/>
+      <c r="D335" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E335" s="46"/>
+      <c r="F335" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" s="46"/>
+      <c r="H335" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I335" s="46"/>
+      <c r="J335" s="46"/>
+    </row>
+    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B337" s="6"/>
+    </row>
+    <row r="338" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A338" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B338" s="43"/>
+      <c r="C338" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D338" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" s="43"/>
+      <c r="F338" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G338" s="44"/>
+      <c r="H338" s="44"/>
+      <c r="I338" s="44"/>
+      <c r="J338" s="33"/>
+    </row>
+    <row r="339" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A339" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="43"/>
+      <c r="C339" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D339" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="43"/>
+      <c r="F339" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G339" s="45"/>
+      <c r="H339" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J339" s="9"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340" s="33"/>
+      <c r="B340" s="33"/>
+      <c r="C340" s="33"/>
+      <c r="D340" s="33"/>
+      <c r="E340" s="33"/>
+      <c r="F340" s="33"/>
+      <c r="G340" s="33"/>
+      <c r="H340" s="33"/>
+      <c r="I340" s="33"/>
+      <c r="J340" s="33"/>
+    </row>
+    <row r="341" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A341" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" s="35"/>
+      <c r="C341" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D341" s="37"/>
+      <c r="E341" s="37"/>
+      <c r="F341" s="37"/>
+      <c r="G341" s="33"/>
+      <c r="H341" s="33"/>
+      <c r="I341" s="33"/>
+      <c r="J341" s="33"/>
+    </row>
+    <row r="342" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A342" s="11"/>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="33"/>
+      <c r="H342" s="33"/>
+      <c r="I342" s="33"/>
+      <c r="J342" s="33"/>
+    </row>
+    <row r="343" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A343" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="39"/>
+      <c r="C343" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D343" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" s="39"/>
+      <c r="F343" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G343" s="41"/>
+      <c r="H343" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I343" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A344" s="11"/>
+      <c r="B344" s="11"/>
+      <c r="C344" s="12"/>
+      <c r="G344" s="33"/>
+      <c r="H344" s="33"/>
+      <c r="I344" s="33"/>
+      <c r="J344" s="33"/>
+    </row>
+    <row r="345" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A345" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="58"/>
+      <c r="D345" s="58"/>
+      <c r="E345" s="58"/>
+      <c r="F345" s="58"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A346" s="14">
+        <v>1</v>
+      </c>
+      <c r="B346" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C346" s="46"/>
+      <c r="D346" s="46"/>
+      <c r="E346" s="46"/>
+      <c r="F346" s="46"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347" s="33"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="33"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="33"/>
+      <c r="F347" s="33"/>
+      <c r="G347" s="33"/>
+      <c r="H347" s="33"/>
+      <c r="I347" s="33"/>
+      <c r="J347" s="33"/>
+    </row>
+    <row r="348" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A348" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C348" s="59"/>
+      <c r="D348" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E348" s="59"/>
+      <c r="F348" s="59"/>
+      <c r="G348" s="33"/>
+      <c r="H348" s="33"/>
+      <c r="I348" s="33"/>
+      <c r="J348" s="33"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349" s="14">
+        <v>1</v>
+      </c>
+      <c r="B349" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C349" s="46"/>
+      <c r="D349" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E349" s="46"/>
+      <c r="F349" s="46"/>
+      <c r="G349" s="33"/>
+      <c r="H349" s="33"/>
+      <c r="I349" s="33"/>
+      <c r="J349" s="33"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350" s="16"/>
+      <c r="B350" s="57"/>
+      <c r="C350" s="57"/>
+      <c r="D350" s="57"/>
+      <c r="E350" s="57"/>
+      <c r="F350" s="57"/>
+      <c r="G350" s="30"/>
+      <c r="H350" s="30"/>
+      <c r="I350" s="30"/>
+      <c r="J350" s="30"/>
+    </row>
+    <row r="351" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A351" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" s="47"/>
+      <c r="C351" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D351" s="33"/>
+      <c r="E351" s="33"/>
+      <c r="F351" s="33"/>
+      <c r="G351" s="33"/>
+      <c r="H351" s="33"/>
+      <c r="I351" s="33"/>
+      <c r="J351" s="33"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C352" s="16"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B353" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C353" s="49"/>
+      <c r="D353" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E353" s="52"/>
+      <c r="F353" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G353" s="54"/>
+      <c r="H353" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I353" s="48"/>
+      <c r="J353" s="48"/>
+    </row>
+    <row r="354" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="49"/>
+      <c r="B354" s="50"/>
+      <c r="C354" s="50"/>
+      <c r="D354" s="53"/>
+      <c r="E354" s="53"/>
+      <c r="F354" s="54"/>
+      <c r="G354" s="54"/>
+      <c r="H354" s="48"/>
+      <c r="I354" s="48"/>
+      <c r="J354" s="48"/>
+    </row>
+    <row r="355" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="14">
+        <v>1</v>
+      </c>
+      <c r="B355" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C355" s="55"/>
+      <c r="D355" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E355" s="46"/>
+      <c r="F355" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G355" s="46"/>
+      <c r="H355" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I355" s="46"/>
+      <c r="J355" s="46"/>
+    </row>
+    <row r="359" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B359" s="6"/>
+    </row>
+    <row r="360" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A360" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B360" s="43"/>
+      <c r="C360" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D360" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" s="43"/>
+      <c r="F360" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G360" s="44"/>
+      <c r="H360" s="44"/>
+      <c r="I360" s="44"/>
+      <c r="J360" s="33"/>
+    </row>
+    <row r="361" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A361" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" s="43"/>
+      <c r="C361" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D361" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" s="43"/>
+      <c r="F361" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G361" s="45"/>
+      <c r="H361" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I361" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J361" s="9"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" s="33"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="33"/>
+      <c r="D362" s="33"/>
+      <c r="E362" s="33"/>
+      <c r="F362" s="33"/>
+      <c r="G362" s="33"/>
+      <c r="H362" s="33"/>
+      <c r="I362" s="33"/>
+      <c r="J362" s="33"/>
+    </row>
+    <row r="363" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A363" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D363" s="37"/>
+      <c r="E363" s="37"/>
+      <c r="F363" s="37"/>
+      <c r="G363" s="33"/>
+      <c r="H363" s="33"/>
+      <c r="I363" s="33"/>
+      <c r="J363" s="33"/>
+    </row>
+    <row r="364" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A364" s="11"/>
+      <c r="B364" s="11"/>
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="33"/>
+      <c r="H364" s="33"/>
+      <c r="I364" s="33"/>
+      <c r="J364" s="33"/>
+    </row>
+    <row r="365" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A365" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="39"/>
+      <c r="C365" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D365" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" s="39"/>
+      <c r="F365" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G365" s="41"/>
+      <c r="H365" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I365" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A366" s="11"/>
+      <c r="B366" s="11"/>
+      <c r="C366" s="12"/>
+      <c r="G366" s="33"/>
+      <c r="H366" s="33"/>
+      <c r="I366" s="33"/>
+      <c r="J366" s="33"/>
+    </row>
+    <row r="367" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A367" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="58"/>
+      <c r="D367" s="58"/>
+      <c r="E367" s="58"/>
+      <c r="F367" s="58"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" s="14">
+        <v>1</v>
+      </c>
+      <c r="B368" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C368" s="46"/>
+      <c r="D368" s="46"/>
+      <c r="E368" s="46"/>
+      <c r="F368" s="46"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="33"/>
+      <c r="B369" s="33"/>
+      <c r="C369" s="33"/>
+      <c r="D369" s="33"/>
+      <c r="E369" s="33"/>
+      <c r="F369" s="33"/>
+      <c r="G369" s="33"/>
+      <c r="H369" s="33"/>
+      <c r="I369" s="33"/>
+      <c r="J369" s="33"/>
+    </row>
+    <row r="370" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A370" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C370" s="59"/>
+      <c r="D370" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E370" s="59"/>
+      <c r="F370" s="59"/>
+      <c r="G370" s="33"/>
+      <c r="H370" s="33"/>
+      <c r="I370" s="33"/>
+      <c r="J370" s="33"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="14">
+        <v>1</v>
+      </c>
+      <c r="B371" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C371" s="46"/>
+      <c r="D371" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E371" s="46"/>
+      <c r="F371" s="46"/>
+      <c r="G371" s="33"/>
+      <c r="H371" s="33"/>
+      <c r="I371" s="33"/>
+      <c r="J371" s="33"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="16"/>
+      <c r="B372" s="57"/>
+      <c r="C372" s="57"/>
+      <c r="D372" s="57"/>
+      <c r="E372" s="57"/>
+      <c r="F372" s="57"/>
+      <c r="G372" s="30"/>
+      <c r="H372" s="30"/>
+      <c r="I372" s="30"/>
+      <c r="J372" s="30"/>
+    </row>
+    <row r="373" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A373" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" s="47"/>
+      <c r="C373" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D373" s="33"/>
+      <c r="E373" s="33"/>
+      <c r="F373" s="33"/>
+      <c r="G373" s="33"/>
+      <c r="H373" s="33"/>
+      <c r="I373" s="33"/>
+      <c r="J373" s="33"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C374" s="16"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B375" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C375" s="49"/>
+      <c r="D375" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E375" s="52"/>
+      <c r="F375" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G375" s="54"/>
+      <c r="H375" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I375" s="48"/>
+      <c r="J375" s="48"/>
+    </row>
+    <row r="376" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="49"/>
+      <c r="B376" s="50"/>
+      <c r="C376" s="50"/>
+      <c r="D376" s="53"/>
+      <c r="E376" s="53"/>
+      <c r="F376" s="54"/>
+      <c r="G376" s="54"/>
+      <c r="H376" s="48"/>
+      <c r="I376" s="48"/>
+      <c r="J376" s="48"/>
+    </row>
+    <row r="377" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="14">
+        <v>1</v>
+      </c>
+      <c r="B377" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C377" s="55"/>
+      <c r="D377" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E377" s="46"/>
+      <c r="F377" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" s="46"/>
+      <c r="H377" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I377" s="46"/>
+      <c r="J377" s="46"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="18"/>
+      <c r="B378" s="33"/>
+      <c r="C378" s="19"/>
+      <c r="D378" s="33"/>
+      <c r="E378" s="33"/>
+      <c r="F378" s="33"/>
+      <c r="G378" s="33"/>
+      <c r="H378" s="33"/>
+      <c r="I378" s="33"/>
+      <c r="J378" s="33"/>
+    </row>
+    <row r="380" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B380" s="6"/>
+    </row>
+    <row r="381" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A381" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B381" s="43"/>
+      <c r="C381" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D381" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381" s="43"/>
+      <c r="F381" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G381" s="44"/>
+      <c r="H381" s="44"/>
+      <c r="I381" s="44"/>
+      <c r="J381" s="33"/>
+    </row>
+    <row r="382" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A382" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="43"/>
+      <c r="C382" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D382" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" s="43"/>
+      <c r="F382" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G382" s="45"/>
+      <c r="H382" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I382" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J382" s="9"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="33"/>
+      <c r="B383" s="33"/>
+      <c r="C383" s="33"/>
+      <c r="D383" s="33"/>
+      <c r="E383" s="33"/>
+      <c r="F383" s="33"/>
+      <c r="G383" s="33"/>
+      <c r="H383" s="33"/>
+      <c r="I383" s="33"/>
+      <c r="J383" s="33"/>
+    </row>
+    <row r="384" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A384" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D384" s="37"/>
+      <c r="E384" s="37"/>
+      <c r="F384" s="37"/>
+      <c r="G384" s="33"/>
+      <c r="H384" s="33"/>
+      <c r="I384" s="33"/>
+      <c r="J384" s="33"/>
+    </row>
+    <row r="385" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A385" s="11"/>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="33"/>
+      <c r="H385" s="33"/>
+      <c r="I385" s="33"/>
+      <c r="J385" s="33"/>
+    </row>
+    <row r="386" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A386" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" s="39"/>
+      <c r="C386" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" s="39"/>
+      <c r="F386" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G386" s="41"/>
+      <c r="H386" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I386" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A387" s="11"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12"/>
+      <c r="G387" s="33"/>
+      <c r="H387" s="33"/>
+      <c r="I387" s="33"/>
+      <c r="J387" s="33"/>
+    </row>
+    <row r="388" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A388" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C388" s="58"/>
+      <c r="D388" s="58"/>
+      <c r="E388" s="58"/>
+      <c r="F388" s="58"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389" s="14">
+        <v>1</v>
+      </c>
+      <c r="B389" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C389" s="46"/>
+      <c r="D389" s="46"/>
+      <c r="E389" s="46"/>
+      <c r="F389" s="46"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390" s="33"/>
+      <c r="B390" s="33"/>
+      <c r="C390" s="33"/>
+      <c r="D390" s="33"/>
+      <c r="E390" s="33"/>
+      <c r="F390" s="33"/>
+      <c r="G390" s="33"/>
+      <c r="H390" s="33"/>
+      <c r="I390" s="33"/>
+      <c r="J390" s="33"/>
+    </row>
+    <row r="391" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A391" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C391" s="59"/>
+      <c r="D391" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E391" s="59"/>
+      <c r="F391" s="59"/>
+      <c r="G391" s="33"/>
+      <c r="H391" s="33"/>
+      <c r="I391" s="33"/>
+      <c r="J391" s="33"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392" s="14">
+        <v>1</v>
+      </c>
+      <c r="B392" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C392" s="46"/>
+      <c r="D392" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E392" s="46"/>
+      <c r="F392" s="46"/>
+      <c r="G392" s="33"/>
+      <c r="H392" s="33"/>
+      <c r="I392" s="33"/>
+      <c r="J392" s="33"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393" s="16"/>
+      <c r="B393" s="57"/>
+      <c r="C393" s="57"/>
+      <c r="D393" s="57"/>
+      <c r="E393" s="57"/>
+      <c r="F393" s="57"/>
+      <c r="G393" s="30"/>
+      <c r="H393" s="30"/>
+      <c r="I393" s="30"/>
+      <c r="J393" s="30"/>
+    </row>
+    <row r="394" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A394" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B394" s="47"/>
+      <c r="C394" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D394" s="33"/>
+      <c r="E394" s="33"/>
+      <c r="F394" s="33"/>
+      <c r="G394" s="33"/>
+      <c r="H394" s="33"/>
+      <c r="I394" s="33"/>
+      <c r="J394" s="33"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C395" s="16"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C396" s="49"/>
+      <c r="D396" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E396" s="52"/>
+      <c r="F396" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G396" s="54"/>
+      <c r="H396" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I396" s="48"/>
+      <c r="J396" s="48"/>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397" s="49"/>
+      <c r="B397" s="50"/>
+      <c r="C397" s="50"/>
+      <c r="D397" s="53"/>
+      <c r="E397" s="53"/>
+      <c r="F397" s="54"/>
+      <c r="G397" s="54"/>
+      <c r="H397" s="48"/>
+      <c r="I397" s="48"/>
+      <c r="J397" s="48"/>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398" s="14">
+        <v>1</v>
+      </c>
+      <c r="B398" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C398" s="55"/>
+      <c r="D398" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E398" s="46"/>
+      <c r="F398" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G398" s="46"/>
+      <c r="H398" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I398" s="46"/>
+      <c r="J398" s="46"/>
+    </row>
+    <row r="401" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
+    </row>
+    <row r="402" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B402" s="6"/>
+    </row>
+    <row r="403" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A403" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B403" s="43"/>
+      <c r="C403" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D403" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" s="43"/>
+      <c r="F403" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G403" s="44"/>
+      <c r="H403" s="44"/>
+      <c r="I403" s="44"/>
+      <c r="J403" s="33"/>
+    </row>
+    <row r="404" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A404" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" s="43"/>
+      <c r="C404" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D404" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" s="43"/>
+      <c r="F404" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G404" s="45"/>
+      <c r="H404" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I404" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J404" s="9"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405" s="33"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="33"/>
+      <c r="D405" s="33"/>
+      <c r="E405" s="33"/>
+      <c r="F405" s="33"/>
+      <c r="G405" s="33"/>
+      <c r="H405" s="33"/>
+      <c r="I405" s="33"/>
+      <c r="J405" s="33"/>
+    </row>
+    <row r="406" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A406" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="35"/>
+      <c r="C406" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D406" s="37"/>
+      <c r="E406" s="37"/>
+      <c r="F406" s="37"/>
+      <c r="G406" s="33"/>
+      <c r="H406" s="33"/>
+      <c r="I406" s="33"/>
+      <c r="J406" s="33"/>
+    </row>
+    <row r="407" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A407" s="11"/>
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="33"/>
+      <c r="H407" s="33"/>
+      <c r="I407" s="33"/>
+      <c r="J407" s="33"/>
+    </row>
+    <row r="408" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A408" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408" s="39"/>
+      <c r="C408" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D408" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" s="39"/>
+      <c r="F408" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G408" s="41"/>
+      <c r="H408" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I408" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A409" s="11"/>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12"/>
+      <c r="G409" s="33"/>
+      <c r="H409" s="33"/>
+      <c r="I409" s="33"/>
+      <c r="J409" s="33"/>
+    </row>
+    <row r="410" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B410" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C410" s="58"/>
+      <c r="D410" s="58"/>
+      <c r="E410" s="58"/>
+      <c r="F410" s="58"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411" s="14">
+        <v>1</v>
+      </c>
+      <c r="B411" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C411" s="46"/>
+      <c r="D411" s="46"/>
+      <c r="E411" s="46"/>
+      <c r="F411" s="46"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" s="33"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="33"/>
+      <c r="D412" s="33"/>
+      <c r="E412" s="33"/>
+      <c r="F412" s="33"/>
+      <c r="G412" s="33"/>
+      <c r="H412" s="33"/>
+      <c r="I412" s="33"/>
+      <c r="J412" s="33"/>
+    </row>
+    <row r="413" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A413" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C413" s="59"/>
+      <c r="D413" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E413" s="59"/>
+      <c r="F413" s="59"/>
+      <c r="G413" s="33"/>
+      <c r="H413" s="33"/>
+      <c r="I413" s="33"/>
+      <c r="J413" s="33"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" s="14">
+        <v>1</v>
+      </c>
+      <c r="B414" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C414" s="46"/>
+      <c r="D414" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E414" s="46"/>
+      <c r="F414" s="46"/>
+      <c r="G414" s="33"/>
+      <c r="H414" s="33"/>
+      <c r="I414" s="33"/>
+      <c r="J414" s="33"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" s="16"/>
+      <c r="B415" s="57"/>
+      <c r="C415" s="57"/>
+      <c r="D415" s="57"/>
+      <c r="E415" s="57"/>
+      <c r="F415" s="57"/>
+      <c r="G415" s="30"/>
+      <c r="H415" s="30"/>
+      <c r="I415" s="30"/>
+      <c r="J415" s="30"/>
+    </row>
+    <row r="416" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A416" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B416" s="47"/>
+      <c r="C416" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D416" s="33"/>
+      <c r="E416" s="33"/>
+      <c r="F416" s="33"/>
+      <c r="G416" s="33"/>
+      <c r="H416" s="33"/>
+      <c r="I416" s="33"/>
+      <c r="J416" s="33"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C417" s="16"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B418" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C418" s="49"/>
+      <c r="D418" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E418" s="52"/>
+      <c r="F418" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G418" s="54"/>
+      <c r="H418" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I418" s="48"/>
+      <c r="J418" s="48"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419" s="49"/>
+      <c r="B419" s="50"/>
+      <c r="C419" s="50"/>
+      <c r="D419" s="53"/>
+      <c r="E419" s="53"/>
+      <c r="F419" s="54"/>
+      <c r="G419" s="54"/>
+      <c r="H419" s="48"/>
+      <c r="I419" s="48"/>
+      <c r="J419" s="48"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" s="14">
+        <v>1</v>
+      </c>
+      <c r="B420" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C420" s="55"/>
+      <c r="D420" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E420" s="46"/>
+      <c r="F420" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G420" s="46"/>
+      <c r="H420" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I420" s="46"/>
+      <c r="J420" s="46"/>
+    </row>
+    <row r="423" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B423" s="6"/>
+    </row>
+    <row r="424" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A424" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B424" s="43"/>
+      <c r="C424" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D424" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E424" s="43"/>
+      <c r="F424" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G424" s="44"/>
+      <c r="H424" s="44"/>
+      <c r="I424" s="44"/>
+      <c r="J424" s="33"/>
+    </row>
+    <row r="425" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A425" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" s="43"/>
+      <c r="C425" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D425" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="43"/>
+      <c r="F425" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G425" s="45"/>
+      <c r="H425" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J425" s="9"/>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426" s="33"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="33"/>
+      <c r="D426" s="33"/>
+      <c r="E426" s="33"/>
+      <c r="F426" s="33"/>
+      <c r="G426" s="33"/>
+      <c r="H426" s="33"/>
+      <c r="I426" s="33"/>
+      <c r="J426" s="33"/>
+    </row>
+    <row r="427" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A427" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" s="35"/>
+      <c r="C427" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D427" s="37"/>
+      <c r="E427" s="37"/>
+      <c r="F427" s="37"/>
+      <c r="G427" s="33"/>
+      <c r="H427" s="33"/>
+      <c r="I427" s="33"/>
+      <c r="J427" s="33"/>
+    </row>
+    <row r="428" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A428" s="11"/>
+      <c r="B428" s="11"/>
+      <c r="C428" s="11"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
+      <c r="F428" s="11"/>
+      <c r="G428" s="33"/>
+      <c r="H428" s="33"/>
+      <c r="I428" s="33"/>
+      <c r="J428" s="33"/>
+    </row>
+    <row r="429" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A429" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429" s="39"/>
+      <c r="C429" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429" s="39"/>
+      <c r="F429" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G429" s="41"/>
+      <c r="H429" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I429" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A430" s="11"/>
+      <c r="B430" s="11"/>
+      <c r="C430" s="12"/>
+      <c r="G430" s="33"/>
+      <c r="H430" s="33"/>
+      <c r="I430" s="33"/>
+      <c r="J430" s="33"/>
+    </row>
+    <row r="431" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A431" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B431" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C431" s="58"/>
+      <c r="D431" s="58"/>
+      <c r="E431" s="58"/>
+      <c r="F431" s="58"/>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432" s="14">
+        <v>1</v>
+      </c>
+      <c r="B432" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C432" s="46"/>
+      <c r="D432" s="46"/>
+      <c r="E432" s="46"/>
+      <c r="F432" s="46"/>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433" s="33"/>
+      <c r="B433" s="33"/>
+      <c r="C433" s="33"/>
+      <c r="D433" s="33"/>
+      <c r="E433" s="33"/>
+      <c r="F433" s="33"/>
+      <c r="G433" s="33"/>
+      <c r="H433" s="33"/>
+      <c r="I433" s="33"/>
+      <c r="J433" s="33"/>
+    </row>
+    <row r="434" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A434" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B434" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C434" s="59"/>
+      <c r="D434" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E434" s="59"/>
+      <c r="F434" s="59"/>
+      <c r="G434" s="33"/>
+      <c r="H434" s="33"/>
+      <c r="I434" s="33"/>
+      <c r="J434" s="33"/>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435" s="14">
+        <v>1</v>
+      </c>
+      <c r="B435" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C435" s="46"/>
+      <c r="D435" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E435" s="46"/>
+      <c r="F435" s="46"/>
+      <c r="G435" s="33"/>
+      <c r="H435" s="33"/>
+      <c r="I435" s="33"/>
+      <c r="J435" s="33"/>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A436" s="16"/>
+      <c r="B436" s="57"/>
+      <c r="C436" s="57"/>
+      <c r="D436" s="57"/>
+      <c r="E436" s="57"/>
+      <c r="F436" s="57"/>
+      <c r="G436" s="30"/>
+      <c r="H436" s="30"/>
+      <c r="I436" s="30"/>
+      <c r="J436" s="30"/>
+    </row>
+    <row r="437" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A437" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B437" s="47"/>
+      <c r="C437" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D437" s="33"/>
+      <c r="E437" s="33"/>
+      <c r="F437" s="33"/>
+      <c r="G437" s="33"/>
+      <c r="H437" s="33"/>
+      <c r="I437" s="33"/>
+      <c r="J437" s="33"/>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C438" s="16"/>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A439" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B439" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C439" s="49"/>
+      <c r="D439" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E439" s="52"/>
+      <c r="F439" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G439" s="54"/>
+      <c r="H439" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I439" s="48"/>
+      <c r="J439" s="48"/>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A440" s="49"/>
+      <c r="B440" s="50"/>
+      <c r="C440" s="50"/>
+      <c r="D440" s="53"/>
+      <c r="E440" s="53"/>
+      <c r="F440" s="54"/>
+      <c r="G440" s="54"/>
+      <c r="H440" s="48"/>
+      <c r="I440" s="48"/>
+      <c r="J440" s="48"/>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A441" s="14">
+        <v>1</v>
+      </c>
+      <c r="B441" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C441" s="55"/>
+      <c r="D441" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E441" s="46"/>
+      <c r="F441" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G441" s="46"/>
+      <c r="H441" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I441" s="46"/>
+      <c r="J441" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:F219"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:J197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:J216"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="D191:E192"/>
-    <mergeCell ref="F191:G192"/>
-    <mergeCell ref="H191:J192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="H170:J171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="H172:J172"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:C171"/>
-    <mergeCell ref="D170:E171"/>
-    <mergeCell ref="F170:G171"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H83:J84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
+  <mergeCells count="601">
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:C440"/>
+    <mergeCell ref="D439:E440"/>
+    <mergeCell ref="F439:G440"/>
+    <mergeCell ref="H439:J440"/>
+    <mergeCell ref="B441:C441"/>
+    <mergeCell ref="D441:E441"/>
+    <mergeCell ref="F441:G441"/>
+    <mergeCell ref="H441:J441"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="B435:C435"/>
+    <mergeCell ref="D435:F435"/>
+    <mergeCell ref="B436:C436"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="D424:E424"/>
+    <mergeCell ref="F424:I424"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="D425:E425"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="A429:B429"/>
+    <mergeCell ref="D429:E429"/>
+    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:C419"/>
+    <mergeCell ref="D418:E419"/>
+    <mergeCell ref="F418:G419"/>
+    <mergeCell ref="H418:J419"/>
+    <mergeCell ref="B420:C420"/>
+    <mergeCell ref="D420:E420"/>
+    <mergeCell ref="F420:G420"/>
+    <mergeCell ref="H420:J420"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="D413:F413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="D415:F415"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="D403:E403"/>
+    <mergeCell ref="F403:I403"/>
+    <mergeCell ref="A404:B404"/>
+    <mergeCell ref="D404:E404"/>
+    <mergeCell ref="F404:G404"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="C406:F406"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="F408:G408"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="B396:C397"/>
+    <mergeCell ref="D396:E397"/>
+    <mergeCell ref="F396:G397"/>
+    <mergeCell ref="H396:J397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="D398:E398"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="H398:J398"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="D393:F393"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:I381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:G382"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:C354"/>
+    <mergeCell ref="D353:E354"/>
+    <mergeCell ref="F353:G354"/>
+    <mergeCell ref="H353:J354"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="B375:C376"/>
+    <mergeCell ref="D375:E376"/>
+    <mergeCell ref="F375:G376"/>
+    <mergeCell ref="H375:J376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="D370:F370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="D371:F371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="F360:I360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="C363:F363"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="F355:G355"/>
+    <mergeCell ref="H355:J355"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="D349:F349"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="F338:I338"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="B333:C334"/>
+    <mergeCell ref="D333:E334"/>
+    <mergeCell ref="F333:G334"/>
+    <mergeCell ref="H333:J334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:I318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:F321"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:C311"/>
+    <mergeCell ref="D310:E311"/>
+    <mergeCell ref="F310:G311"/>
+    <mergeCell ref="H310:J311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:J312"/>
+    <mergeCell ref="H300:J301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="H302:J302"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="D306:F306"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:F295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:F296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:C301"/>
+    <mergeCell ref="D300:E301"/>
+    <mergeCell ref="F300:G301"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:C290"/>
+    <mergeCell ref="D289:E290"/>
+    <mergeCell ref="F289:G290"/>
+    <mergeCell ref="H289:J290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:F277"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="H265:J266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="H267:J267"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:J274"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:F261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:C266"/>
+    <mergeCell ref="D265:E266"/>
+    <mergeCell ref="F265:G266"/>
+    <mergeCell ref="H254:J255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:J256"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:C255"/>
+    <mergeCell ref="D254:E255"/>
+    <mergeCell ref="F254:G255"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:F248"/>
+    <mergeCell ref="H231:J232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:J238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:C232"/>
+    <mergeCell ref="D231:E232"/>
+    <mergeCell ref="F231:G232"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:C213"/>
+    <mergeCell ref="D212:E213"/>
+    <mergeCell ref="F212:G213"/>
+    <mergeCell ref="H212:J213"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:C84"/>
+    <mergeCell ref="D83:E84"/>
+    <mergeCell ref="F83:G84"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:E105"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="H104:J105"/>
+    <mergeCell ref="H125:J126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:C126"/>
+    <mergeCell ref="D125:E126"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:J131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:C147"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="F146:G147"/>
+    <mergeCell ref="H146:J147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:I24"/>
@@ -5428,6 +7740,41 @@
     <mergeCell ref="C180:F180"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H83:J84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:C171"/>
+    <mergeCell ref="D170:E171"/>
+    <mergeCell ref="F170:G171"/>
     <mergeCell ref="A160:B160"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="F160:G160"/>
@@ -5442,183 +7789,40 @@
     <mergeCell ref="F155:J155"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:C147"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="F146:G147"/>
-    <mergeCell ref="H146:J147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:J131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:C126"/>
-    <mergeCell ref="D125:E126"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:J126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:E105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="H104:J105"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:C84"/>
-    <mergeCell ref="D83:E84"/>
-    <mergeCell ref="F83:G84"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H170:J171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:C192"/>
+    <mergeCell ref="D191:E192"/>
+    <mergeCell ref="F191:G192"/>
+    <mergeCell ref="H191:J192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:J197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:J216"/>
     <mergeCell ref="B204:F204"/>
     <mergeCell ref="B205:F205"/>
     <mergeCell ref="B207:C207"/>
@@ -5628,145 +7832,11 @@
     <mergeCell ref="B209:C209"/>
     <mergeCell ref="D209:F209"/>
     <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:C213"/>
-    <mergeCell ref="D212:E213"/>
-    <mergeCell ref="F212:G213"/>
-    <mergeCell ref="H212:J213"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:C232"/>
-    <mergeCell ref="D231:E232"/>
-    <mergeCell ref="F231:G232"/>
-    <mergeCell ref="H231:J232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:J238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="C241:F241"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:F248"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="D260:F260"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:C255"/>
-    <mergeCell ref="D254:E255"/>
-    <mergeCell ref="F254:G255"/>
-    <mergeCell ref="H265:J266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="F267:G267"/>
-    <mergeCell ref="H267:J267"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:J274"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:F261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="D262:F262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:C266"/>
-    <mergeCell ref="D265:E266"/>
-    <mergeCell ref="F265:G266"/>
-    <mergeCell ref="H254:J255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="H256:J256"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:F277"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:C290"/>
-    <mergeCell ref="D289:E290"/>
-    <mergeCell ref="F289:G290"/>
-    <mergeCell ref="H289:J290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:F295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:C301"/>
-    <mergeCell ref="D300:E301"/>
-    <mergeCell ref="F300:G301"/>
-    <mergeCell ref="H300:J301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="H302:J302"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="D306:F306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:C311"/>
-    <mergeCell ref="D310:E311"/>
-    <mergeCell ref="F310:G311"/>
-    <mergeCell ref="H310:J311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="H312:J312"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D371" r:id="rId1" xr:uid="{448EB05E-E341-4358-BD45-B192FDA3AB9F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.19791666666666666" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>